--- a/data/total_energy.xlsx
+++ b/data/total_energy.xlsx
@@ -2910,7 +2910,2743 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>能耗!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>no_opt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>能耗!$D$3:$D$127</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="125"/>
+                <c:pt idx="0">
+                  <c:v>0.160496</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.24063200000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.42267199999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.73650400000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.392768</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.24063200000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.320768</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.50280800000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.81664000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.472904</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.42267199999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.50280800000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.68484800000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.99868000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.654944</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.73650400000000005</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.81664000000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.99868000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.3125119999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9687760000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.392768</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.472904</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.654944</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.9687760000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.6250399999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.190192</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.27032800000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.45236799999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.76619999999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.422464</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.27032800000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.350464</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.53250399999999998</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.84633599999999998</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.5025999999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.45236799999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.53250399999999998</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.71454399999999996</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.028376</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.6846399999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.76619999999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.84633599999999998</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.028376</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.3422080000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.998472</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.422464</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.5025999999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.6846399999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.998472</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.6547360000000002</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.213232</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.29336800000000002</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.475408</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.78924000000000005</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.4455039999999999</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.29336800000000002</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.373504</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.55554400000000004</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.86937600000000004</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.5256400000000001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.475408</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.55554400000000004</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.73758400000000002</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.0514159999999999</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.7076800000000001</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.78924000000000005</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.86937600000000004</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.0514159999999999</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.365248</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.021512</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.4455039999999999</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.5256400000000001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.7076800000000001</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.021512</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2.6777760000000002</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.25726399999999999</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.33739999999999998</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.51944000000000001</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.83327200000000001</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.489536</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.33739999999999998</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.41753600000000002</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.599576</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.913408</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.569672</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.51944000000000001</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.599576</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.78161599999999998</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.095448</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.7517119999999999</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.83327200000000001</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.913408</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.095448</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.4092800000000001</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2.065544</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.489536</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.569672</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.7517119999999999</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.065544</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.7218079999999998</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.34174399999999999</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.42187999999999998</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.60392000000000001</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.91775200000000001</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1.5740160000000001</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.42187999999999998</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.50201600000000002</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.684056</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.997888</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1.6541520000000001</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.60392000000000001</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.684056</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.86609599999999998</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1.1799280000000001</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1.836192</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.91775200000000001</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.997888</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1.1799280000000001</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1.49376</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2.1500240000000002</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1.5740160000000001</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1.6541520000000001</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1.836192</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2.1500240000000002</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2.8062879999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>能耗!$E$3:$E$127</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="125"/>
+                <c:pt idx="0">
+                  <c:v>5211.92</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5035.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4760.99</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4723.93</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5123.99</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4417.2299999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4824.8900000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4686.28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4669.1499999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5089.2700000000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3888.44</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4312.16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4359.17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4443.6099999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4903.93</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3535.01</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3958.67</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4005.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4149.1899999999996</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4609.51</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3539.44</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3963.09</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4009.93</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4153.62</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4613.9399999999996</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4917.22</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4345.29</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4029.99</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3858.05</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3832.6</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4122.68</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4134.84</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3955.44</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3803.43</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3798.03</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3593.92</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3622.12</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3628.35</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3577.9</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3612.71</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3240.53</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3268.68</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3274.73</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3283.54</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3318.35</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3245.13</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3273.27</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3279.33</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3288.14</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3322.94</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4924.72</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4340.17</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4023.58</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3847.33</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3808.31</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4130.18</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4129.72</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3949.03</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3792.71</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3773.74</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3601.42</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3617</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3621.93</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3567.18</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3588.42</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3248.03</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3263.56</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3268.31</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3272.82</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3294.06</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3252.63</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3268.16</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3272.91</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3277.42</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3298.65</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>5016.71</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>4426.13</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>4108.91</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3930.6</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3885.08</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4222.18</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4215.67</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4034.36</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>3875.98</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>3850.5</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3693.41</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3702.95</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3707.26</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3650.45</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3665.18</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>3340.03</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>3349.52</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3353.64</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>3356.09</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>3370.82</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>3344.63</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>3354.11</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>3358.24</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>3360.69</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>3375.42</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>5036.6899999999996</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>4443.08</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>4125.55</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>3946.21</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>3897.44</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>4242.1499999999996</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>4232.63</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>4051</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>3891.59</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>3862.86</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>3713.39</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>3719.91</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>3723.91</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>3666.06</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>3677.54</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>3360</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>3366.47</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>3370.28</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>3371.7</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>3383.18</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>3364.6</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>3371.06</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>3374.88</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>3376.3</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>3387.78</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0398-49D0-95BF-35A950A382D1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>能耗!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cross</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>能耗!$D$3:$D$127</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="125"/>
+                <c:pt idx="0">
+                  <c:v>0.160496</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.24063200000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.42267199999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.73650400000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.392768</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.24063200000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.320768</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.50280800000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.81664000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.472904</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.42267199999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.50280800000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.68484800000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.99868000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.654944</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.73650400000000005</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.81664000000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.99868000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.3125119999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9687760000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.392768</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.472904</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.654944</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.9687760000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.6250399999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.190192</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.27032800000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.45236799999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.76619999999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.422464</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.27032800000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.350464</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.53250399999999998</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.84633599999999998</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.5025999999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.45236799999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.53250399999999998</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.71454399999999996</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.028376</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.6846399999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.76619999999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.84633599999999998</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.028376</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.3422080000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.998472</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.422464</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.5025999999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.6846399999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.998472</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.6547360000000002</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.213232</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.29336800000000002</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.475408</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.78924000000000005</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.4455039999999999</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.29336800000000002</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.373504</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.55554400000000004</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.86937600000000004</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.5256400000000001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.475408</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.55554400000000004</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.73758400000000002</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.0514159999999999</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.7076800000000001</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.78924000000000005</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.86937600000000004</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.0514159999999999</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.365248</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.021512</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.4455039999999999</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.5256400000000001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.7076800000000001</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.021512</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2.6777760000000002</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.25726399999999999</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.33739999999999998</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.51944000000000001</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.83327200000000001</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.489536</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.33739999999999998</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.41753600000000002</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.599576</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.913408</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.569672</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.51944000000000001</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.599576</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.78161599999999998</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.095448</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.7517119999999999</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.83327200000000001</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.913408</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.095448</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.4092800000000001</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2.065544</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.489536</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.569672</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.7517119999999999</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.065544</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.7218079999999998</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.34174399999999999</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.42187999999999998</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.60392000000000001</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.91775200000000001</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1.5740160000000001</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.42187999999999998</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.50201600000000002</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.684056</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.997888</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1.6541520000000001</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.60392000000000001</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.684056</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.86609599999999998</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1.1799280000000001</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1.836192</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.91775200000000001</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.997888</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1.1799280000000001</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1.49376</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2.1500240000000002</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1.5740160000000001</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1.6541520000000001</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1.836192</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2.1500240000000002</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2.8062879999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>能耗!$F$3:$F$127</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="125"/>
+                <c:pt idx="0">
+                  <c:v>5031.5600000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4855.1400000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4473.74</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4339.66</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4726.58</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4236.33</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4644</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4398.13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4320.68</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4727.63</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3781.08</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4204.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4144.3900000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4168.33</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4628.6499999999996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3535.01</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3958.67</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4005.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4149.1899999999996</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4609.51</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3539.44</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3963.09</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4009.93</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4153.62</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4613.9399999999996</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4736.8500000000004</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4164.93</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3742.75</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3473.78</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3435.19</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3941.78</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3953.94</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3667.29</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3454.96</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3436.39</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3486.55</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3514.76</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3413.57</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3302.62</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3337.43</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3240.53</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3268.68</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3274.73</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3283.54</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3318.35</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3245.13</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3273.27</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3279.33</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3288.14</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3322.94</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4744.3500000000004</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4159.8100000000004</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3736.33</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3463.06</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3410.9</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3949.28</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3948.82</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3660.87</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3444.24</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3412.1</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3494.05</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3509.64</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3407.15</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3291.91</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3313.14</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3248.03</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3263.56</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3268.31</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3272.82</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3294.06</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3252.63</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3268.16</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3272.91</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3277.42</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3298.65</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>4836.3500000000004</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>4245.7700000000004</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3821.66</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3546.33</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3487.67</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4041.28</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4034.78</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>3746.2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>3527.51</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>3488.87</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3586.05</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3595.59</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3492.48</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3375.17</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3389.91</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>3340.03</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>3349.52</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3353.64</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>3356.09</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>3370.82</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>3344.63</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>3354.11</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>3358.24</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>3360.69</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>3375.42</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>4856.33</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>4262.72</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>3838.3</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>3561.94</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>3500.03</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>4061.26</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>4051.73</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>3762.84</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>3543.12</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>3501.23</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>3606.03</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>3612.55</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>3509.12</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>3390.79</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>3402.27</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>3360</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>3366.47</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>3370.28</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>3371.7</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>3383.18</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>3364.6</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>3371.06</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>3374.88</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>3376.3</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>3387.78</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0398-49D0-95BF-35A950A382D1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>能耗!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fixed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>能耗!$D$3:$D$127</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="125"/>
+                <c:pt idx="0">
+                  <c:v>0.160496</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.24063200000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.42267199999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.73650400000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.392768</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.24063200000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.320768</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.50280800000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.81664000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.472904</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.42267199999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.50280800000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.68484800000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.99868000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.654944</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.73650400000000005</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.81664000000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.99868000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.3125119999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9687760000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.392768</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.472904</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.654944</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.9687760000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.6250399999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.190192</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.27032800000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.45236799999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.76619999999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.422464</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.27032800000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.350464</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.53250399999999998</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.84633599999999998</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.5025999999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.45236799999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.53250399999999998</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.71454399999999996</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.028376</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.6846399999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.76619999999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.84633599999999998</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.028376</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.3422080000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.998472</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.422464</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.5025999999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.6846399999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.998472</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.6547360000000002</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.213232</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.29336800000000002</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.475408</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.78924000000000005</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.4455039999999999</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.29336800000000002</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.373504</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.55554400000000004</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.86937600000000004</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.5256400000000001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.475408</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.55554400000000004</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.73758400000000002</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.0514159999999999</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.7076800000000001</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.78924000000000005</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.86937600000000004</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.0514159999999999</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.365248</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.021512</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.4455039999999999</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.5256400000000001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.7076800000000001</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.021512</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2.6777760000000002</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.25726399999999999</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.33739999999999998</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.51944000000000001</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.83327200000000001</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.489536</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.33739999999999998</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.41753600000000002</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.599576</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.913408</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.569672</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.51944000000000001</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.599576</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.78161599999999998</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.095448</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.7517119999999999</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.83327200000000001</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.913408</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.095448</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.4092800000000001</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2.065544</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.489536</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.569672</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.7517119999999999</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.065544</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.7218079999999998</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.34174399999999999</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.42187999999999998</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.60392000000000001</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.91775200000000001</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1.5740160000000001</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.42187999999999998</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.50201600000000002</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.684056</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.997888</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1.6541520000000001</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.60392000000000001</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.684056</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.86609599999999998</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1.1799280000000001</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1.836192</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.91775200000000001</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.997888</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1.1799280000000001</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1.49376</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2.1500240000000002</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1.5740160000000001</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1.6541520000000001</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1.836192</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2.1500240000000002</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2.8062879999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>能耗!$G$3:$G$127</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="125"/>
+                <c:pt idx="0">
+                  <c:v>5031.5600000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4855.1400000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4473.57</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4332.09</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4637.22</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4228.78</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4643.82</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4397.95</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4313.1099999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4638.2700000000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3773.53</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4197.24</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4107.18</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4071.98</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4510.76</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3527.46</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3951.11</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3968.29</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4052.84</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4401.24</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3531.88</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3955.54</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3972.71</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4057.27</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4405.67</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4736.8500000000004</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4164.93</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3742.57</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3466.21</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3345.83</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3934.23</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3953.77</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3667.11</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3447.39</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3347.04</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3479</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3507.2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3376.36</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3206.27</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3219.54</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3232.98</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3261.12</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3237.52</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3187.19</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3110.08</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3237.58</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3265.72</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3242.11</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3191.78</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3114.67</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4744.3500000000004</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4159.8100000000004</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3736.16</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3455.49</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3321.54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3941.73</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3948.65</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3660.7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3436.67</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3322.74</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3486.5</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3502.08</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3369.94</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3195.55</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3195.24</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3240.48</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3256</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3231.1</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3176.47</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3085.79</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3245.08</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3260.6</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3235.7</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3181.06</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3090.38</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>4836.3500000000004</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>4245.7700000000004</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3821.49</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3538.76</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3398.31</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4033.73</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4034.6</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>3746.03</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>3519.94</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>3399.51</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3578.5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3588.03</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3455.27</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3278.82</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3272.01</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>3332.48</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>3341.96</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3316.43</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>3259.74</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>3162.55</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>3337.07</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>3346.55</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>3321.03</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>3264.33</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>3167.15</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>4856.33</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>4262.72</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>3838.13</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>3554.37</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>3410.67</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>4053.71</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>4051.56</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>3762.67</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>3535.55</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>3411.87</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>3598.47</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>3604.99</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>3471.91</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>3294.43</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>3284.37</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>3352.45</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>3358.91</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>3333.07</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>3275.35</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>3174.91</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>3357.05</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>3363.51</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>3337.67</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>3279.94</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>3179.51</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0398-49D0-95BF-35A950A382D1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2049524224"/>
+        <c:axId val="2049521728"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2049524224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2049521728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2049521728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2049524224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3466,6 +6202,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -3493,6 +6745,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3766,8 +7048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="Q136" sqref="Q136"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:G127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/data/total_energy.xlsx
+++ b/data/total_energy.xlsx
@@ -6752,16 +6752,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7046,10 +7046,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M255"/>
+  <dimension ref="A1:Q255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="Q205" sqref="Q205"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7058,7 +7058,7 @@
     <col min="4" max="4" width="12.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="E1" s="4" t="s">
         <v>17</v>
       </c>
@@ -7075,7 +7075,7 @@
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -7116,7 +7116,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3">
         <f>加速器!D4</f>
         <v>160496</v>
@@ -7161,7 +7161,7 @@
         <v>547.38599999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4">
         <f>加速器!D5</f>
         <v>320768</v>
@@ -7206,7 +7206,7 @@
         <v>591.41800000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5">
         <f>加速器!D6</f>
         <v>684848</v>
@@ -7250,8 +7250,15 @@
       <c r="M5">
         <v>565.82799999999997</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P5">
+        <f>MIN(G3:G127)</f>
+        <v>3085.88</v>
+      </c>
+      <c r="Q5">
+        <v>3.3340320000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6">
         <f>加速器!D7</f>
         <v>1312512</v>
@@ -7295,8 +7302,15 @@
       <c r="M6">
         <v>514.01800000000003</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P6">
+        <f>MIN(G131:G255)</f>
+        <v>2532.0300000000002</v>
+      </c>
+      <c r="Q6">
+        <v>2.827512</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7">
         <f>加速器!D8</f>
         <v>2625040</v>
@@ -7341,7 +7355,7 @@
         <v>472.73099999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>160496</v>
       </c>
@@ -7385,7 +7399,7 @@
         <v>547.64300000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>320768</v>
       </c>
@@ -7429,7 +7443,7 @@
         <v>591.67600000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>684848</v>
       </c>
@@ -7473,7 +7487,7 @@
         <v>566.08600000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1312512</v>
       </c>
@@ -7517,7 +7531,7 @@
         <v>514.27599999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2625040</v>
       </c>
@@ -7561,7 +7575,7 @@
         <v>472.98599999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>160496</v>
       </c>
@@ -7605,7 +7619,7 @@
         <v>547.90200000000004</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>320768</v>
       </c>
@@ -7649,7 +7663,7 @@
         <v>591.93399999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>684848</v>
       </c>
@@ -7693,7 +7707,7 @@
         <v>566.34400000000005</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1312512</v>
       </c>
@@ -17865,7 +17879,8 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -18094,7 +18109,7 @@
         <v>103</v>
       </c>
       <c r="C13" s="3">
-        <f t="shared" ref="C12:C15" si="3">$A$2*$B$2*$C$2*B13</f>
+        <f t="shared" ref="C13:C15" si="3">$A$2*$B$2*$C$2*B13</f>
         <v>52736</v>
       </c>
     </row>

--- a/data/total_energy.xlsx
+++ b/data/total_energy.xlsx
@@ -194,11 +194,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -19089,6 +19089,1037 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>能耗!$T$3:$T$127</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="125"/>
+                <c:pt idx="0">
+                  <c:v>0.24074400000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.40101599999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.765096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.39276</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.7052879999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.32088</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.48115200000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.84523199999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.472896</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.7854239999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.50292000000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.663192</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.027272</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.654936</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.9674640000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.81675200000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.977024</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.3411040000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.9687680000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.2812960000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.4730160000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.6332880000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.997368</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.625032</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.9375599999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.27044000000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.43071199999999998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.79479200000000005</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.4224559999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.7349839999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.350576</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.51084799999999997</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.87492800000000004</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.5025919999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.8151199999999998</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.53261599999999998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.69288799999999995</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.0569679999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.6846319999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.99716</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.84644799999999998</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.0067200000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.3708</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.998464</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.3109920000000002</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.502712</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.662984</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.0270640000000002</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.654728</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.9672559999999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.29348000000000002</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.45375199999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.817832</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.4454959999999999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.7580239999999998</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.373616</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.53388800000000003</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.89796799999999999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.5256320000000001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.8381599999999998</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.55565600000000004</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.71592800000000001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.0800080000000001</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.7076720000000001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3.0202</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.86948800000000004</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.02976</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.39384</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.0215040000000002</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3.3340320000000001</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.525752</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.686024</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.0501040000000001</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.6777679999999999</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3.9902959999999998</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.33751199999999998</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.497784</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.86186399999999996</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.489528</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2.8020559999999999</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.41764800000000002</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.57791999999999999</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.94199999999999995</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.5696639999999999</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2.8821919999999999</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.599688</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.75995999999999997</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.1240399999999999</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.7517039999999999</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3.0642320000000001</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.91352</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.0737920000000001</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.437872</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2.0655359999999998</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>3.3780640000000002</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.5697840000000001</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.730056</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.0941360000000002</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.7218</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>4.0343280000000004</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.42199199999999998</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.582264</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.94634399999999996</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.5740080000000001</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2.886536</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.50212800000000002</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.66239999999999999</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1.0264800000000001</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1.6541440000000001</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2.966672</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.684168</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.84443999999999997</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1.20852</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1.836184</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>3.1487120000000002</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.998</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1.158272</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1.5223519999999999</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2.1500159999999999</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>3.4625439999999998</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1.654264</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1.8145359999999999</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2.1786159999999999</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2.8062800000000001</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>4.1188079999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>能耗!$U$3:$U$127</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="125"/>
+                <c:pt idx="0">
+                  <c:v>336.08934666586515</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>324.30515199487007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>298.81770635031961</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>289.36737270304388</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>309.74891289100856</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>282.46665197149133</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>310.18976815021136</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>293.76657381987724</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>288.09957985157871</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>309.81904895497269</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>252.05765852420362</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>280.35989820251285</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>274.34422780193574</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>271.99299975285385</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>301.30185893967632</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>235.62110494359055</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>263.91933684681618</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>265.06689644577148</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>270.71451950116563</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>293.98633348696467</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>235.91634437475369</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>264.21524424049323</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>265.36213587693459</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>271.01042689484268</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>294.28224088064178</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>316.40716322999953</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>278.2050511325304</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>249.99298639360359</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>231.53317435825502</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>223.49224161540056</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>262.79515593584887</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>264.10035468809491</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>244.95254126338429</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>230.27606890701293</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>223.57306507958774</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>232.38749841358904</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>234.27115270291031</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>225.53153117047069</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>214.17015677080204</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>215.05654302680534</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>215.9542846455457</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>217.8339311597833</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>216.25753962687614</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>212.89568429419739</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>207.74502534917741</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>216.2615474019598</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>218.14119391619741</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>216.5641344207763</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>213.20227908809755</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>208.05162014307754</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>316.91080696551307</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>277.86572617544698</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>249.56749427222144</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>230.81979039336312</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>221.87243251908703</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>263.29879967136247</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>263.76102973101149</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>244.52704914200214</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>229.56268494212105</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>221.95325598327423</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>232.89114214910259</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>233.93182774582689</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>225.10537108657462</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>213.45677280591011</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>213.43606596797787</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>216.45792838105925</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>217.49460620269991</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>215.83137954298005</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>212.18230032930552</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>206.12521625286388</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>216.76519113747335</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>217.80186895911402</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>216.13864229939415</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>212.48889512320568</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>206.43181104676404</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>323.06207375642077</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>283.61354360793268</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>255.27323006632867</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>236.38792590959795</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>227.00639240125841</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>269.45006646227012</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>269.50884716349719</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>250.2327849361094</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>235.13082045835586</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>227.0865479029317</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>239.04240894001026</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>239.67964517831257</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>230.81110688068185</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>219.02490832214497</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>218.57002585014928</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>222.60919517196695</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>223.24242363518559</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>221.5371153370873</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>217.75043584554035</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>211.25917613503529</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>222.91645792838108</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>223.54968639159969</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>221.84437809350138</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>218.05769860195446</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>211.56577092893545</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>324.40868618453129</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>284.75776339431832</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>256.39674301478198</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>237.443306681629</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>227.84401739374388</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>270.79667889038069</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>270.65306694988277</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>251.35629788456274</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>236.18620123038696</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>227.92484085793103</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>240.38902136812084</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>240.82386496469817</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>231.93528779164913</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>220.08028909417604</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>219.40831880514864</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>223.95580760007749</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>224.38731138408514</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>222.66129624805455</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>218.80514865505748</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>212.09680112752073</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>224.26240239397762</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>224.69390617798527</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>222.96789104195474</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>219.11241141147158</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>212.40406388393484</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9F3C-49A3-AED8-1058CA939DE3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1273541824"/>
+        <c:axId val="1273548064"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1273541824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1273548064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1273548064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1273541824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -19330,6 +20361,46 @@
 </file>
 
 <file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -22981,20 +24052,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>142</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>160</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -23015,16 +24602,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -23045,16 +24632,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>128</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -23075,16 +24662,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>128</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -23105,16 +24692,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>109</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -23135,16 +24722,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>109</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -23165,16 +24752,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -23188,6 +24775,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="图表 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -23459,10 +25076,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R255"/>
+  <dimension ref="A1:Z255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="T10" sqref="T10"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="R33" sqref="R33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -23471,24 +25088,24 @@
     <col min="4" max="4" width="12.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="E1" s="4" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="E1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4" t="s">
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4" t="s">
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -23528,8 +25145,17 @@
       <c r="M2" t="s">
         <v>16</v>
       </c>
+      <c r="U2">
+        <v>14.9709</v>
+      </c>
+      <c r="V2">
+        <v>28.843599999999999</v>
+      </c>
+      <c r="W2">
+        <v>1.4863999999999999</v>
+      </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3">
         <f>加速器!D4</f>
         <v>160496</v>
@@ -23573,8 +25199,23 @@
       <c r="M3">
         <v>547.38599999999997</v>
       </c>
+      <c r="T3">
+        <v>0.24074400000000001</v>
+      </c>
+      <c r="U3">
+        <f>G3/U$2</f>
+        <v>336.08934666586515</v>
+      </c>
+      <c r="V3">
+        <f>J3/V$2</f>
+        <v>292.60009152810329</v>
+      </c>
+      <c r="W3">
+        <f>M3/W$2</f>
+        <v>368.26291711517763</v>
+      </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4">
         <f>加速器!D5</f>
         <v>320768</v>
@@ -23618,8 +25259,23 @@
       <c r="M4">
         <v>591.41800000000001</v>
       </c>
+      <c r="T4">
+        <v>0.40101599999999998</v>
+      </c>
+      <c r="U4">
+        <f t="shared" ref="U4:U67" si="1">G4/U$2</f>
+        <v>324.30515199487007</v>
+      </c>
+      <c r="V4">
+        <f t="shared" ref="V4:V67" si="2">J4/V$2</f>
+        <v>290.28033948605582</v>
+      </c>
+      <c r="W4">
+        <f t="shared" ref="W4:W67" si="3">M4/W$2</f>
+        <v>397.88616792249735</v>
+      </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5">
         <f>加速器!D6</f>
         <v>684848</v>
@@ -23670,8 +25326,23 @@
       <c r="Q5">
         <v>3.3340320000000001</v>
       </c>
+      <c r="T5">
+        <v>0.765096</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="1"/>
+        <v>298.81770635031961</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="2"/>
+        <v>275.5782911980474</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="3"/>
+        <v>380.67007534983856</v>
+      </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6">
         <f>加速器!D7</f>
         <v>1312512</v>
@@ -23722,8 +25393,23 @@
       <c r="Q6">
         <v>2.827512</v>
       </c>
+      <c r="T6">
+        <v>1.39276</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="1"/>
+        <v>289.36737270304388</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="2"/>
+        <v>273.68636369939952</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="3"/>
+        <v>345.81404736275567</v>
+      </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7">
         <f>加速器!D8</f>
         <v>2625040</v>
@@ -23767,8 +25453,23 @@
       <c r="M7">
         <v>472.73099999999999</v>
       </c>
+      <c r="T7">
+        <v>2.7052879999999999</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="1"/>
+        <v>309.74891289100856</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="2"/>
+        <v>294.64109889195527</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="3"/>
+        <v>318.03754036598497</v>
+      </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>160496</v>
       </c>
@@ -23818,8 +25519,23 @@
       <c r="Q8">
         <v>3.3340320000000001</v>
       </c>
+      <c r="T8">
+        <v>0.32088</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="1"/>
+        <v>282.46665197149133</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="2"/>
+        <v>250.43129151700899</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="3"/>
+        <v>368.43581808396129</v>
+      </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>320768</v>
       </c>
@@ -23869,11 +25585,26 @@
       <c r="Q9">
         <v>2.827512</v>
       </c>
-      <c r="R9" s="5">
+      <c r="R9" s="4">
         <v>0.18</v>
       </c>
+      <c r="T9">
+        <v>0.48115200000000002</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="1"/>
+        <v>310.18976815021136</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="2"/>
+        <v>273.92315799692136</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="3"/>
+        <v>398.05974165769652</v>
+      </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>684848</v>
       </c>
@@ -23916,8 +25647,23 @@
       <c r="M10">
         <v>566.08600000000001</v>
       </c>
+      <c r="T10">
+        <v>0.84523199999999998</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="1"/>
+        <v>293.76657381987724</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="2"/>
+        <v>266.83909082084068</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="3"/>
+        <v>380.84364908503773</v>
+      </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1312512</v>
       </c>
@@ -23967,8 +25713,23 @@
       <c r="Q11">
         <v>2.7580239999999998</v>
       </c>
+      <c r="T11">
+        <v>1.472896</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="1"/>
+        <v>288.09957985157871</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="2"/>
+        <v>270.26168716803727</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="3"/>
+        <v>345.98762109795479</v>
+      </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2625040</v>
       </c>
@@ -24018,11 +25779,26 @@
       <c r="Q12">
         <v>0.75880800000000004</v>
       </c>
-      <c r="R12" s="5">
+      <c r="R12" s="4">
         <v>0.12</v>
       </c>
+      <c r="T12">
+        <v>2.7854239999999999</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="1"/>
+        <v>309.81904895497269</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="2"/>
+        <v>294.68616954887739</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="3"/>
+        <v>318.20909580193756</v>
+      </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>160496</v>
       </c>
@@ -24065,8 +25841,23 @@
       <c r="M13">
         <v>547.90200000000004</v>
       </c>
+      <c r="T13">
+        <v>0.50292000000000003</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="1"/>
+        <v>252.05765852420362</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="2"/>
+        <v>232.17698206881249</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="3"/>
+        <v>368.61006458557591</v>
+      </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>320768</v>
       </c>
@@ -24109,8 +25900,23 @@
       <c r="M14">
         <v>591.93399999999997</v>
       </c>
+      <c r="T14">
+        <v>0.663192</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="1"/>
+        <v>280.35989820251285</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="2"/>
+        <v>258.26526508480219</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="3"/>
+        <v>398.23331539289558</v>
+      </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>684848</v>
       </c>
@@ -24153,8 +25959,23 @@
       <c r="M15">
         <v>566.34400000000005</v>
       </c>
+      <c r="T15">
+        <v>1.027272</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="1"/>
+        <v>274.34422780193574</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="2"/>
+        <v>256.58239609480097</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="3"/>
+        <v>381.01722282023684</v>
+      </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1312512</v>
       </c>
@@ -24197,8 +26018,23 @@
       <c r="M16">
         <v>514.53499999999997</v>
       </c>
+      <c r="T16">
+        <v>1.654936</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="1"/>
+        <v>271.99299975285385</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="2"/>
+        <v>265.06746730643886</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="3"/>
+        <v>346.1618675995694</v>
+      </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2625040</v>
       </c>
@@ -24241,8 +26077,23 @@
       <c r="M17">
         <v>473.24400000000003</v>
       </c>
+      <c r="T17">
+        <v>2.9674640000000001</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="1"/>
+        <v>301.30185893967632</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="2"/>
+        <v>288.19703504416924</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="3"/>
+        <v>318.38266953713674</v>
+      </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>160496</v>
       </c>
@@ -24285,8 +26136,23 @@
       <c r="M18">
         <v>548.08100000000002</v>
       </c>
+      <c r="T18">
+        <v>0.81675200000000003</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="1"/>
+        <v>235.62110494359055</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="2"/>
+        <v>224.81104993828788</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="3"/>
+        <v>368.73048977395052</v>
+      </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>320768</v>
       </c>
@@ -24329,8 +26195,23 @@
       <c r="M19">
         <v>592.11400000000003</v>
       </c>
+      <c r="T19">
+        <v>0.977024</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="1"/>
+        <v>263.91933684681618</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="2"/>
+        <v>251.15484890929011</v>
+      </c>
+      <c r="W19">
+        <f t="shared" si="3"/>
+        <v>398.35441334768569</v>
+      </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>684848</v>
       </c>
@@ -24373,8 +26254,23 @@
       <c r="M20">
         <v>566.524</v>
       </c>
+      <c r="T20">
+        <v>1.3411040000000001</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="1"/>
+        <v>265.06689644577148</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="2"/>
+        <v>254.58645938787114</v>
+      </c>
+      <c r="W20">
+        <f t="shared" si="3"/>
+        <v>381.1383207750269</v>
+      </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1312512</v>
       </c>
@@ -24417,8 +26313,23 @@
       <c r="M21">
         <v>514.71400000000006</v>
       </c>
+      <c r="T21">
+        <v>1.9687680000000001</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="1"/>
+        <v>270.71451950116563</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="2"/>
+        <v>261.67711381380968</v>
+      </c>
+      <c r="W21">
+        <f t="shared" si="3"/>
+        <v>346.28229278794407</v>
+      </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2625040</v>
       </c>
@@ -24461,8 +26372,23 @@
       <c r="M22">
         <v>473.42200000000003</v>
       </c>
+      <c r="T22">
+        <v>3.2812960000000002</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="1"/>
+        <v>293.98633348696467</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="2"/>
+        <v>287.92557101055348</v>
+      </c>
+      <c r="W22">
+        <f t="shared" si="3"/>
+        <v>318.50242195909584</v>
+      </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>160496</v>
       </c>
@@ -24505,8 +26431,23 @@
       <c r="M23">
         <v>548.83299999999997</v>
       </c>
+      <c r="T23">
+        <v>1.4730160000000001</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="1"/>
+        <v>235.91634437475369</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="2"/>
+        <v>225.15289353617442</v>
+      </c>
+      <c r="W23">
+        <f t="shared" si="3"/>
+        <v>369.23641011840687</v>
+      </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>320768</v>
       </c>
@@ -24549,8 +26490,23 @@
       <c r="M24">
         <v>592.86599999999999</v>
       </c>
+      <c r="T24">
+        <v>1.6332880000000001</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="1"/>
+        <v>264.21524424049323</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="2"/>
+        <v>251.49010525731879</v>
+      </c>
+      <c r="W24">
+        <f t="shared" si="3"/>
+        <v>398.86033369214209</v>
+      </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>684848</v>
       </c>
@@ -24593,8 +26549,23 @@
       <c r="M25">
         <v>567.27599999999995</v>
       </c>
+      <c r="T25">
+        <v>1.997368</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="1"/>
+        <v>265.36213587693459</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="2"/>
+        <v>254.92830298575768</v>
+      </c>
+      <c r="W25">
+        <f t="shared" si="3"/>
+        <v>381.6442411194833</v>
+      </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1312512</v>
       </c>
@@ -24637,8 +26608,23 @@
       <c r="M26">
         <v>515.46600000000001</v>
       </c>
+      <c r="T26">
+        <v>2.625032</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="1"/>
+        <v>271.01042689484268</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="2"/>
+        <v>262.01271685919932</v>
+      </c>
+      <c r="W26">
+        <f t="shared" si="3"/>
+        <v>346.78821313240047</v>
+      </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2625040</v>
       </c>
@@ -24681,8 +26667,23 @@
       <c r="M27">
         <v>474.17099999999999</v>
       </c>
+      <c r="T27">
+        <v>3.9375599999999999</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="1"/>
+        <v>294.28224088064178</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="2"/>
+        <v>288.26082735858216</v>
+      </c>
+      <c r="W27">
+        <f t="shared" si="3"/>
+        <v>319.00632400430572</v>
+      </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>160496</v>
       </c>
@@ -24724,8 +26725,23 @@
       <c r="M28">
         <v>518.09100000000001</v>
       </c>
+      <c r="T28">
+        <v>0.27044000000000001</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="1"/>
+        <v>316.40716322999953</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="2"/>
+        <v>273.12090030370689</v>
+      </c>
+      <c r="W28">
+        <f t="shared" si="3"/>
+        <v>348.55422497308939</v>
+      </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>320768</v>
       </c>
@@ -24767,8 +26783,23 @@
       <c r="M29">
         <v>521.28499999999997</v>
       </c>
+      <c r="T29">
+        <v>0.43071199999999998</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="1"/>
+        <v>278.2050511325304</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="2"/>
+        <v>244.64629935236934</v>
+      </c>
+      <c r="W29">
+        <f t="shared" si="3"/>
+        <v>350.70304090419808</v>
+      </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>684848</v>
       </c>
@@ -24810,8 +26841,23 @@
       <c r="M30">
         <v>491.48399999999998</v>
       </c>
+      <c r="T30">
+        <v>0.79479200000000005</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="1"/>
+        <v>249.99298639360359</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="2"/>
+        <v>227.24763899097204</v>
+      </c>
+      <c r="W30">
+        <f t="shared" si="3"/>
+        <v>330.65392895586655</v>
+      </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1312512</v>
       </c>
@@ -24853,8 +26899,23 @@
       <c r="M31">
         <v>425.74700000000001</v>
       </c>
+      <c r="T31">
+        <v>1.4224559999999999</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="1"/>
+        <v>231.53317435825502</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="2"/>
+        <v>216.43588179006781</v>
+      </c>
+      <c r="W31">
+        <f t="shared" si="3"/>
+        <v>286.42828310010765</v>
+      </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2625040</v>
       </c>
@@ -24896,8 +26957,23 @@
       <c r="M32">
         <v>340.52699999999999</v>
       </c>
+      <c r="T32">
+        <v>2.7349839999999999</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="1"/>
+        <v>223.49224161540056</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="2"/>
+        <v>209.25231247139749</v>
+      </c>
+      <c r="W32">
+        <f t="shared" si="3"/>
+        <v>229.09512917115177</v>
+      </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>160496</v>
       </c>
@@ -24939,8 +27015,23 @@
       <c r="M33">
         <v>518.36199999999997</v>
       </c>
+      <c r="T33">
+        <v>0.350576</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="1"/>
+        <v>262.79515593584887</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="2"/>
+        <v>230.96250121344076</v>
+      </c>
+      <c r="W33">
+        <f t="shared" si="3"/>
+        <v>348.73654467168996</v>
+      </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>320768</v>
       </c>
@@ -24982,8 +27073,23 @@
       <c r="M34">
         <v>521.55600000000004</v>
       </c>
+      <c r="T34">
+        <v>0.51084799999999997</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="1"/>
+        <v>264.10035468809491</v>
+      </c>
+      <c r="V34">
+        <f t="shared" si="2"/>
+        <v>228.29986548142395</v>
+      </c>
+      <c r="W34">
+        <f t="shared" si="3"/>
+        <v>350.88536060279876</v>
+      </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>684848</v>
       </c>
@@ -25025,8 +27131,23 @@
       <c r="M35">
         <v>491.755</v>
       </c>
+      <c r="T35">
+        <v>0.87492800000000004</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="1"/>
+        <v>244.95254126338429</v>
+      </c>
+      <c r="V35">
+        <f t="shared" si="2"/>
+        <v>218.51883953459347</v>
+      </c>
+      <c r="W35">
+        <f t="shared" si="3"/>
+        <v>330.83624865446717</v>
+      </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1312512</v>
       </c>
@@ -25068,8 +27189,23 @@
       <c r="M36">
         <v>426.01799999999997</v>
       </c>
+      <c r="T36">
+        <v>1.5025919999999999</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="1"/>
+        <v>230.27606890701293</v>
+      </c>
+      <c r="V36">
+        <f t="shared" si="2"/>
+        <v>213.02195287689472</v>
+      </c>
+      <c r="W36">
+        <f t="shared" si="3"/>
+        <v>286.61060279870827</v>
+      </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2625040</v>
       </c>
@@ -25111,8 +27247,23 @@
       <c r="M37">
         <v>340.79700000000003</v>
       </c>
+      <c r="T37">
+        <v>2.8151199999999998</v>
+      </c>
+      <c r="U37">
+        <f t="shared" si="1"/>
+        <v>223.57306507958774</v>
+      </c>
+      <c r="V37">
+        <f t="shared" si="2"/>
+        <v>209.30778404914781</v>
+      </c>
+      <c r="W37">
+        <f t="shared" si="3"/>
+        <v>229.27677610333694</v>
+      </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>160496</v>
       </c>
@@ -25154,8 +27305,23 @@
       <c r="M38">
         <v>518.62199999999996</v>
       </c>
+      <c r="T38">
+        <v>0.53261599999999998</v>
+      </c>
+      <c r="U38">
+        <f t="shared" si="1"/>
+        <v>232.38749841358904</v>
+      </c>
+      <c r="V38">
+        <f t="shared" si="2"/>
+        <v>212.70923185732713</v>
+      </c>
+      <c r="W38">
+        <f t="shared" si="3"/>
+        <v>348.91146393972014</v>
+      </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>320768</v>
       </c>
@@ -25197,8 +27363,23 @@
       <c r="M39">
         <v>521.81600000000003</v>
       </c>
+      <c r="T39">
+        <v>0.69288799999999995</v>
+      </c>
+      <c r="U39">
+        <f t="shared" si="1"/>
+        <v>234.27115270291031</v>
+      </c>
+      <c r="V39">
+        <f t="shared" si="2"/>
+        <v>212.64301266138764</v>
+      </c>
+      <c r="W39">
+        <f t="shared" si="3"/>
+        <v>351.06027987082888</v>
+      </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>684848</v>
       </c>
@@ -25240,8 +27421,23 @@
       <c r="M40">
         <v>492.01499999999999</v>
       </c>
+      <c r="T40">
+        <v>1.0569679999999999</v>
+      </c>
+      <c r="U40">
+        <f t="shared" si="1"/>
+        <v>225.53153117047069</v>
+      </c>
+      <c r="V40">
+        <f t="shared" si="2"/>
+        <v>208.26353159799748</v>
+      </c>
+      <c r="W40">
+        <f t="shared" si="3"/>
+        <v>331.01116792249729</v>
+      </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1312512</v>
       </c>
@@ -25283,8 +27479,23 @@
       <c r="M41">
         <v>426.27800000000002</v>
       </c>
+      <c r="T41">
+        <v>1.6846319999999999</v>
+      </c>
+      <c r="U41">
+        <f t="shared" si="1"/>
+        <v>214.17015677080204</v>
+      </c>
+      <c r="V41">
+        <f t="shared" si="2"/>
+        <v>207.82877310737911</v>
+      </c>
+      <c r="W41">
+        <f t="shared" si="3"/>
+        <v>286.78552206673845</v>
+      </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>2625040</v>
       </c>
@@ -25326,8 +27537,23 @@
       <c r="M42">
         <v>341.05700000000002</v>
       </c>
+      <c r="T42">
+        <v>2.99716</v>
+      </c>
+      <c r="U42">
+        <f t="shared" si="1"/>
+        <v>215.05654302680534</v>
+      </c>
+      <c r="V42">
+        <f t="shared" si="2"/>
+        <v>202.8196896365225</v>
+      </c>
+      <c r="W42">
+        <f t="shared" si="3"/>
+        <v>229.45169537136709</v>
+      </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>160496</v>
       </c>
@@ -25369,8 +27595,23 @@
       <c r="M43">
         <v>518.80600000000004</v>
       </c>
+      <c r="T43">
+        <v>0.84644799999999998</v>
+      </c>
+      <c r="U43">
+        <f t="shared" si="1"/>
+        <v>215.9542846455457</v>
+      </c>
+      <c r="V43">
+        <f t="shared" si="2"/>
+        <v>205.34676670041188</v>
+      </c>
+      <c r="W43">
+        <f t="shared" si="3"/>
+        <v>349.03525296017227</v>
+      </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>320768</v>
       </c>
@@ -25412,8 +27653,23 @@
       <c r="M44">
         <v>521.99900000000002</v>
       </c>
+      <c r="T44">
+        <v>1.0067200000000001</v>
+      </c>
+      <c r="U44">
+        <f t="shared" si="1"/>
+        <v>217.8339311597833</v>
+      </c>
+      <c r="V44">
+        <f t="shared" si="2"/>
+        <v>205.53606345948495</v>
+      </c>
+      <c r="W44">
+        <f t="shared" si="3"/>
+        <v>351.18339612486545</v>
+      </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>684848</v>
       </c>
@@ -25455,8 +27711,23 @@
       <c r="M45">
         <v>492.19799999999998</v>
       </c>
+      <c r="T45">
+        <v>1.3708</v>
+      </c>
+      <c r="U45">
+        <f t="shared" si="1"/>
+        <v>216.25753962687614</v>
+      </c>
+      <c r="V45">
+        <f t="shared" si="2"/>
+        <v>206.27106186467711</v>
+      </c>
+      <c r="W45">
+        <f t="shared" si="3"/>
+        <v>331.13428417653392</v>
+      </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>1312512</v>
       </c>
@@ -25498,8 +27769,23 @@
       <c r="M46">
         <v>426.46199999999999</v>
       </c>
+      <c r="T46">
+        <v>1.998464</v>
+      </c>
+      <c r="U46">
+        <f t="shared" si="1"/>
+        <v>212.89568429419739</v>
+      </c>
+      <c r="V46">
+        <f t="shared" si="2"/>
+        <v>204.44223328572025</v>
+      </c>
+      <c r="W46">
+        <f t="shared" si="3"/>
+        <v>286.90931108719053</v>
+      </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>2625040</v>
       </c>
@@ -25541,8 +27827,23 @@
       <c r="M47">
         <v>341.24099999999999</v>
       </c>
+      <c r="T47">
+        <v>3.3109920000000002</v>
+      </c>
+      <c r="U47">
+        <f t="shared" si="1"/>
+        <v>207.74502534917741</v>
+      </c>
+      <c r="V47">
+        <f t="shared" si="2"/>
+        <v>202.55203927387706</v>
+      </c>
+      <c r="W47">
+        <f t="shared" si="3"/>
+        <v>229.57548439181915</v>
+      </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>160496</v>
       </c>
@@ -25584,8 +27885,23 @@
       <c r="M48">
         <v>519.57100000000003</v>
       </c>
+      <c r="T48">
+        <v>1.502712</v>
+      </c>
+      <c r="U48">
+        <f t="shared" si="1"/>
+        <v>216.2615474019598</v>
+      </c>
+      <c r="V48">
+        <f t="shared" si="2"/>
+        <v>205.70005131120942</v>
+      </c>
+      <c r="W48">
+        <f t="shared" si="3"/>
+        <v>349.54991926803018</v>
+      </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>320768</v>
       </c>
@@ -25627,8 +27943,23 @@
       <c r="M49">
         <v>522.76499999999999</v>
       </c>
+      <c r="T49">
+        <v>1.662984</v>
+      </c>
+      <c r="U49">
+        <f t="shared" si="1"/>
+        <v>218.14119391619741</v>
+      </c>
+      <c r="V49">
+        <f t="shared" si="2"/>
+        <v>205.88310751778559</v>
+      </c>
+      <c r="W49">
+        <f t="shared" si="3"/>
+        <v>351.69873519913887</v>
+      </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>684848</v>
       </c>
@@ -25670,8 +28001,23 @@
       <c r="M50">
         <v>492.964</v>
       </c>
+      <c r="T50">
+        <v>2.0270640000000002</v>
+      </c>
+      <c r="U50">
+        <f t="shared" si="1"/>
+        <v>216.5641344207763</v>
+      </c>
+      <c r="V50">
+        <f t="shared" si="2"/>
+        <v>206.6239997781137</v>
+      </c>
+      <c r="W50">
+        <f t="shared" si="3"/>
+        <v>331.64962325080734</v>
+      </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>1312512</v>
       </c>
@@ -25713,8 +28059,23 @@
       <c r="M51">
         <v>427.22699999999998</v>
       </c>
+      <c r="T51">
+        <v>2.654728</v>
+      </c>
+      <c r="U51">
+        <f t="shared" si="1"/>
+        <v>213.20227908809755</v>
+      </c>
+      <c r="V51">
+        <f t="shared" si="2"/>
+        <v>204.78893064665994</v>
+      </c>
+      <c r="W51">
+        <f t="shared" si="3"/>
+        <v>287.42397739504844</v>
+      </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>2625040</v>
       </c>
@@ -25756,8 +28117,23 @@
       <c r="M52">
         <v>342.00700000000001</v>
       </c>
+      <c r="T52">
+        <v>3.9672559999999999</v>
+      </c>
+      <c r="U52">
+        <f t="shared" si="1"/>
+        <v>208.05162014307754</v>
+      </c>
+      <c r="V52">
+        <f t="shared" si="2"/>
+        <v>202.89873663481674</v>
+      </c>
+      <c r="W52">
+        <f t="shared" si="3"/>
+        <v>230.09082346609259</v>
+      </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>160496</v>
       </c>
@@ -25799,8 +28175,23 @@
       <c r="M53">
         <v>519.11599999999999</v>
       </c>
+      <c r="T53">
+        <v>0.29348000000000002</v>
+      </c>
+      <c r="U53">
+        <f t="shared" si="1"/>
+        <v>316.91080696551307</v>
+      </c>
+      <c r="V53">
+        <f t="shared" si="2"/>
+        <v>273.61806431929443</v>
+      </c>
+      <c r="W53">
+        <f t="shared" si="3"/>
+        <v>349.24381054897742</v>
+      </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>320768</v>
       </c>
@@ -25842,8 +28233,23 @@
       <c r="M54">
         <v>520.904</v>
       </c>
+      <c r="T54">
+        <v>0.45375199999999999</v>
+      </c>
+      <c r="U54">
+        <f t="shared" si="1"/>
+        <v>277.86572617544698</v>
+      </c>
+      <c r="V54">
+        <f t="shared" si="2"/>
+        <v>244.30618924128751</v>
+      </c>
+      <c r="W54">
+        <f t="shared" si="3"/>
+        <v>350.44671689989235</v>
+      </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>684848</v>
       </c>
@@ -25885,8 +28291,23 @@
       <c r="M55">
         <v>490.959</v>
       </c>
+      <c r="T55">
+        <v>0.817832</v>
+      </c>
+      <c r="U55">
+        <f t="shared" si="1"/>
+        <v>249.56749427222144</v>
+      </c>
+      <c r="V55">
+        <f t="shared" si="2"/>
+        <v>226.82085453965524</v>
+      </c>
+      <c r="W55">
+        <f t="shared" si="3"/>
+        <v>330.30072658772878</v>
+      </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>1312512</v>
       </c>
@@ -25928,8 +28349,23 @@
       <c r="M56">
         <v>424.74299999999999</v>
       </c>
+      <c r="T56">
+        <v>1.4454959999999999</v>
+      </c>
+      <c r="U56">
+        <f t="shared" si="1"/>
+        <v>230.81979039336312</v>
+      </c>
+      <c r="V56">
+        <f t="shared" si="2"/>
+        <v>215.72376541069769</v>
+      </c>
+      <c r="W56">
+        <f t="shared" si="3"/>
+        <v>285.75282561894511</v>
+      </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>2625040</v>
       </c>
@@ -25971,8 +28407,23 @@
       <c r="M57">
         <v>338.01</v>
       </c>
+      <c r="T57">
+        <v>2.7580239999999998</v>
+      </c>
+      <c r="U57">
+        <f t="shared" si="1"/>
+        <v>221.87243251908703</v>
+      </c>
+      <c r="V57">
+        <f t="shared" si="2"/>
+        <v>207.63912965094511</v>
+      </c>
+      <c r="W57">
+        <f t="shared" si="3"/>
+        <v>227.40177610333691</v>
+      </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>160496</v>
       </c>
@@ -26014,8 +28465,23 @@
       <c r="M58">
         <v>519.38599999999997</v>
       </c>
+      <c r="T58">
+        <v>0.373616</v>
+      </c>
+      <c r="U58">
+        <f t="shared" si="1"/>
+        <v>263.29879967136247</v>
+      </c>
+      <c r="V58">
+        <f t="shared" si="2"/>
+        <v>231.4596652290283</v>
+      </c>
+      <c r="W58">
+        <f t="shared" si="3"/>
+        <v>349.42545748116254</v>
+      </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>320768</v>
       </c>
@@ -26057,8 +28523,23 @@
       <c r="M59">
         <v>521.17499999999995</v>
       </c>
+      <c r="T59">
+        <v>0.53388800000000003</v>
+      </c>
+      <c r="U59">
+        <f t="shared" si="1"/>
+        <v>263.76102973101149</v>
+      </c>
+      <c r="V59">
+        <f t="shared" si="2"/>
+        <v>227.9594086729812</v>
+      </c>
+      <c r="W59">
+        <f t="shared" si="3"/>
+        <v>350.62903659849297</v>
+      </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>684848</v>
       </c>
@@ -26100,8 +28581,23 @@
       <c r="M60">
         <v>491.22899999999998</v>
       </c>
+      <c r="T60">
+        <v>0.89796799999999999</v>
+      </c>
+      <c r="U60">
+        <f t="shared" si="1"/>
+        <v>244.52704914200214</v>
+      </c>
+      <c r="V60">
+        <f t="shared" si="2"/>
+        <v>218.09240178063766</v>
+      </c>
+      <c r="W60">
+        <f t="shared" si="3"/>
+        <v>330.48237351991389</v>
+      </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>1312512</v>
       </c>
@@ -26143,8 +28639,23 @@
       <c r="M61">
         <v>425.01299999999998</v>
       </c>
+      <c r="T61">
+        <v>1.5256320000000001</v>
+      </c>
+      <c r="U61">
+        <f t="shared" si="1"/>
+        <v>229.56268494212105</v>
+      </c>
+      <c r="V61">
+        <f t="shared" si="2"/>
+        <v>212.30983649752457</v>
+      </c>
+      <c r="W61">
+        <f t="shared" si="3"/>
+        <v>285.93447255113023</v>
+      </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>2625040</v>
       </c>
@@ -26186,8 +28697,23 @@
       <c r="M62">
         <v>338.28100000000001</v>
       </c>
+      <c r="T62">
+        <v>2.8381599999999998</v>
+      </c>
+      <c r="U62">
+        <f t="shared" si="1"/>
+        <v>221.95325598327423</v>
+      </c>
+      <c r="V62">
+        <f t="shared" si="2"/>
+        <v>207.69460122869546</v>
+      </c>
+      <c r="W62">
+        <f t="shared" si="3"/>
+        <v>227.58409580193759</v>
+      </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>160496</v>
       </c>
@@ -26229,8 +28755,23 @@
       <c r="M63">
         <v>519.64599999999996</v>
       </c>
+      <c r="T63">
+        <v>0.55565600000000004</v>
+      </c>
+      <c r="U63">
+        <f t="shared" si="1"/>
+        <v>232.89114214910259</v>
+      </c>
+      <c r="V63">
+        <f t="shared" si="2"/>
+        <v>213.20674257027557</v>
+      </c>
+      <c r="W63">
+        <f t="shared" si="3"/>
+        <v>349.60037674919266</v>
+      </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>320768</v>
       </c>
@@ -26272,8 +28813,23 @@
       <c r="M64">
         <v>521.43499999999995</v>
       </c>
+      <c r="T64">
+        <v>0.71592800000000001</v>
+      </c>
+      <c r="U64">
+        <f t="shared" si="1"/>
+        <v>233.93182774582689</v>
+      </c>
+      <c r="V64">
+        <f t="shared" si="2"/>
+        <v>212.30290255030579</v>
+      </c>
+      <c r="W64">
+        <f t="shared" si="3"/>
+        <v>350.8039558665231</v>
+      </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>684848</v>
       </c>
@@ -26315,8 +28871,23 @@
       <c r="M65">
         <v>491.48899999999998</v>
       </c>
+      <c r="T65">
+        <v>1.0800080000000001</v>
+      </c>
+      <c r="U65">
+        <f t="shared" si="1"/>
+        <v>225.10537108657462</v>
+      </c>
+      <c r="V65">
+        <f t="shared" si="2"/>
+        <v>207.83709384404168</v>
+      </c>
+      <c r="W65">
+        <f t="shared" si="3"/>
+        <v>330.65729278794402</v>
+      </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>1312512</v>
       </c>
@@ -26358,8 +28929,23 @@
       <c r="M66">
         <v>425.27300000000002</v>
       </c>
+      <c r="T66">
+        <v>1.7076720000000001</v>
+      </c>
+      <c r="U66">
+        <f t="shared" si="1"/>
+        <v>213.45677280591011</v>
+      </c>
+      <c r="V66">
+        <f t="shared" si="2"/>
+        <v>207.11665672800899</v>
+      </c>
+      <c r="W66">
+        <f t="shared" si="3"/>
+        <v>286.10939181916041</v>
+      </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>2625040</v>
       </c>
@@ -26401,8 +28987,23 @@
       <c r="M67">
         <v>338.541</v>
       </c>
+      <c r="T67">
+        <v>3.0202</v>
+      </c>
+      <c r="U67">
+        <f t="shared" si="1"/>
+        <v>213.43606596797787</v>
+      </c>
+      <c r="V67">
+        <f t="shared" si="2"/>
+        <v>201.20685351343107</v>
+      </c>
+      <c r="W67">
+        <f t="shared" si="3"/>
+        <v>227.75901506996772</v>
+      </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>160496</v>
       </c>
@@ -26414,7 +29015,7 @@
         <v>52736</v>
       </c>
       <c r="D68">
-        <f t="shared" ref="D68:D127" si="1">(A68+B68+C68)/1000000</f>
+        <f t="shared" ref="D68:D127" si="4">(A68+B68+C68)/1000000</f>
         <v>0.86948800000000004</v>
       </c>
       <c r="E68">
@@ -26444,8 +29045,23 @@
       <c r="M68">
         <v>519.83000000000004</v>
       </c>
+      <c r="T68">
+        <v>0.86948800000000004</v>
+      </c>
+      <c r="U68">
+        <f t="shared" ref="U68:U127" si="5">G68/U$2</f>
+        <v>216.45792838105925</v>
+      </c>
+      <c r="V68">
+        <f t="shared" ref="V68:V127" si="6">J68/V$2</f>
+        <v>205.84393071599939</v>
+      </c>
+      <c r="W68">
+        <f t="shared" ref="W68:W127" si="7">M68/W$2</f>
+        <v>349.7241657696448</v>
+      </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>320768</v>
       </c>
@@ -26457,7 +29073,7 @@
         <v>52736</v>
       </c>
       <c r="D69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.02976</v>
       </c>
       <c r="E69">
@@ -26487,8 +29103,23 @@
       <c r="M69">
         <v>521.61900000000003</v>
       </c>
+      <c r="T69">
+        <v>1.02976</v>
+      </c>
+      <c r="U69">
+        <f t="shared" si="5"/>
+        <v>217.49460620269991</v>
+      </c>
+      <c r="V69">
+        <f t="shared" si="6"/>
+        <v>205.19595334840312</v>
+      </c>
+      <c r="W69">
+        <f t="shared" si="7"/>
+        <v>350.92774488697529</v>
+      </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>684848</v>
       </c>
@@ -26500,7 +29131,7 @@
         <v>52736</v>
       </c>
       <c r="D70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.39384</v>
       </c>
       <c r="E70">
@@ -26530,8 +29161,23 @@
       <c r="M70">
         <v>491.673</v>
       </c>
+      <c r="T70">
+        <v>1.39384</v>
+      </c>
+      <c r="U70">
+        <f t="shared" si="5"/>
+        <v>215.83137954298005</v>
+      </c>
+      <c r="V70">
+        <f t="shared" si="6"/>
+        <v>205.84427741336035</v>
+      </c>
+      <c r="W70">
+        <f t="shared" si="7"/>
+        <v>330.78108180839615</v>
+      </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>1312512</v>
       </c>
@@ -26543,7 +29189,7 @@
         <v>52736</v>
       </c>
       <c r="D71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2.0215040000000002</v>
       </c>
       <c r="E71">
@@ -26573,8 +29219,23 @@
       <c r="M71">
         <v>425.45699999999999</v>
       </c>
+      <c r="T71">
+        <v>2.0215040000000002</v>
+      </c>
+      <c r="U71">
+        <f t="shared" si="5"/>
+        <v>212.18230032930552</v>
+      </c>
+      <c r="V71">
+        <f t="shared" si="6"/>
+        <v>203.73011690635013</v>
+      </c>
+      <c r="W71">
+        <f t="shared" si="7"/>
+        <v>286.23318083961249</v>
+      </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>2625040</v>
       </c>
@@ -26586,7 +29247,7 @@
         <v>52736</v>
       </c>
       <c r="D72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3.3340320000000001</v>
       </c>
       <c r="E72">
@@ -26616,8 +29277,23 @@
       <c r="M72">
         <v>338.72500000000002</v>
       </c>
+      <c r="T72">
+        <v>3.3340320000000001</v>
+      </c>
+      <c r="U72">
+        <f t="shared" si="5"/>
+        <v>206.12521625286388</v>
+      </c>
+      <c r="V72">
+        <f t="shared" si="6"/>
+        <v>200.93885645342471</v>
+      </c>
+      <c r="W72">
+        <f t="shared" si="7"/>
+        <v>227.88280409041982</v>
+      </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>160496</v>
       </c>
@@ -26629,7 +29305,7 @@
         <v>52736</v>
       </c>
       <c r="D73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.525752</v>
       </c>
       <c r="E73">
@@ -26659,8 +29335,23 @@
       <c r="M73">
         <v>520.596</v>
       </c>
+      <c r="T73">
+        <v>1.525752</v>
+      </c>
+      <c r="U73">
+        <f t="shared" si="5"/>
+        <v>216.76519113747335</v>
+      </c>
+      <c r="V73">
+        <f t="shared" si="6"/>
+        <v>206.19721532679696</v>
+      </c>
+      <c r="W73">
+        <f t="shared" si="7"/>
+        <v>350.23950484391821</v>
+      </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>320768</v>
       </c>
@@ -26672,7 +29363,7 @@
         <v>52736</v>
       </c>
       <c r="D74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.686024</v>
       </c>
       <c r="E74">
@@ -26702,8 +29393,23 @@
       <c r="M74">
         <v>522.38499999999999</v>
       </c>
+      <c r="T74">
+        <v>1.686024</v>
+      </c>
+      <c r="U74">
+        <f t="shared" si="5"/>
+        <v>217.80186895911402</v>
+      </c>
+      <c r="V74">
+        <f t="shared" si="6"/>
+        <v>205.54265070934281</v>
+      </c>
+      <c r="W74">
+        <f t="shared" si="7"/>
+        <v>351.44308396124865</v>
+      </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>684848</v>
       </c>
@@ -26715,7 +29421,7 @@
         <v>52736</v>
       </c>
       <c r="D75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2.0501040000000001</v>
       </c>
       <c r="E75">
@@ -26745,8 +29451,23 @@
       <c r="M75">
         <v>492.43900000000002</v>
       </c>
+      <c r="T75">
+        <v>2.0501040000000001</v>
+      </c>
+      <c r="U75">
+        <f t="shared" si="5"/>
+        <v>216.13864229939415</v>
+      </c>
+      <c r="V75">
+        <f t="shared" si="6"/>
+        <v>206.19756202415786</v>
+      </c>
+      <c r="W75">
+        <f t="shared" si="7"/>
+        <v>331.29642088266957</v>
+      </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>1312512</v>
       </c>
@@ -26758,7 +29479,7 @@
         <v>52736</v>
       </c>
       <c r="D76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2.6777679999999999</v>
       </c>
       <c r="E76">
@@ -26788,8 +29509,23 @@
       <c r="M76">
         <v>426.22300000000001</v>
       </c>
+      <c r="T76">
+        <v>2.6777679999999999</v>
+      </c>
+      <c r="U76">
+        <f t="shared" si="5"/>
+        <v>212.48889512320568</v>
+      </c>
+      <c r="V76">
+        <f t="shared" si="6"/>
+        <v>204.07681426728982</v>
+      </c>
+      <c r="W76">
+        <f t="shared" si="7"/>
+        <v>286.7485199138859</v>
+      </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>2625040</v>
       </c>
@@ -26801,7 +29537,7 @@
         <v>52736</v>
       </c>
       <c r="D77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3.9902959999999998</v>
       </c>
       <c r="E77">
@@ -26831,8 +29567,23 @@
       <c r="M77">
         <v>339.49</v>
       </c>
+      <c r="T77">
+        <v>3.9902959999999998</v>
+      </c>
+      <c r="U77">
+        <f t="shared" si="5"/>
+        <v>206.43181104676404</v>
+      </c>
+      <c r="V77">
+        <f t="shared" si="6"/>
+        <v>201.28555381436439</v>
+      </c>
+      <c r="W77">
+        <f t="shared" si="7"/>
+        <v>228.39747039827773</v>
+      </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>160496</v>
       </c>
@@ -26844,7 +29595,7 @@
         <v>96768</v>
       </c>
       <c r="D78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.33751199999999998</v>
       </c>
       <c r="E78">
@@ -26874,8 +29625,23 @@
       <c r="M78">
         <v>530.61599999999999</v>
       </c>
+      <c r="T78">
+        <v>0.33751199999999998</v>
+      </c>
+      <c r="U78">
+        <f t="shared" si="5"/>
+        <v>323.06207375642077</v>
+      </c>
+      <c r="V78">
+        <f t="shared" si="6"/>
+        <v>279.70711006947818</v>
+      </c>
+      <c r="W78">
+        <f t="shared" si="7"/>
+        <v>356.98062432723361</v>
+      </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>320768</v>
       </c>
@@ -26887,7 +29653,7 @@
         <v>96768</v>
       </c>
       <c r="D79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.497784</v>
       </c>
       <c r="E79">
@@ -26917,8 +29683,23 @@
       <c r="M79">
         <v>532.05799999999999</v>
       </c>
+      <c r="T79">
+        <v>0.497784</v>
+      </c>
+      <c r="U79">
+        <f t="shared" si="5"/>
+        <v>283.61354360793268</v>
+      </c>
+      <c r="V79">
+        <f t="shared" si="6"/>
+        <v>249.98647880292336</v>
+      </c>
+      <c r="W79">
+        <f t="shared" si="7"/>
+        <v>357.95075349838538</v>
+      </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>684848</v>
       </c>
@@ -26930,7 +29711,7 @@
         <v>96768</v>
       </c>
       <c r="D80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.86186399999999996</v>
       </c>
       <c r="E80">
@@ -26960,8 +29741,23 @@
       <c r="M80">
         <v>502.07600000000002</v>
       </c>
+      <c r="T80">
+        <v>0.86186399999999996</v>
+      </c>
+      <c r="U80">
+        <f t="shared" si="5"/>
+        <v>255.27323006632867</v>
+      </c>
+      <c r="V80">
+        <f t="shared" si="6"/>
+        <v>232.45884702325645</v>
+      </c>
+      <c r="W80">
+        <f t="shared" si="7"/>
+        <v>337.77987082884823</v>
+      </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>1312512</v>
       </c>
@@ -26973,7 +29769,7 @@
         <v>96768</v>
       </c>
       <c r="D81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.489528</v>
       </c>
       <c r="E81">
@@ -27003,8 +29799,23 @@
       <c r="M81">
         <v>435.74200000000002</v>
       </c>
+      <c r="T81">
+        <v>1.489528</v>
+      </c>
+      <c r="U81">
+        <f t="shared" si="5"/>
+        <v>236.38792590959795</v>
+      </c>
+      <c r="V81">
+        <f t="shared" si="6"/>
+        <v>221.22238555520119</v>
+      </c>
+      <c r="W81">
+        <f t="shared" si="7"/>
+        <v>293.15258342303554</v>
+      </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>2625040</v>
       </c>
@@ -27016,7 +29827,7 @@
         <v>96768</v>
       </c>
       <c r="D82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2.8020559999999999</v>
       </c>
       <c r="E82">
@@ -27046,8 +29857,23 @@
       <c r="M82">
         <v>348.63600000000002</v>
       </c>
+      <c r="T82">
+        <v>2.8020559999999999</v>
+      </c>
+      <c r="U82">
+        <f t="shared" si="5"/>
+        <v>227.00639240125841</v>
+      </c>
+      <c r="V82">
+        <f t="shared" si="6"/>
+        <v>212.69744414705517</v>
+      </c>
+      <c r="W82">
+        <f t="shared" si="7"/>
+        <v>234.55059203444566</v>
+      </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>160496</v>
       </c>
@@ -27059,7 +29885,7 @@
         <v>96768</v>
       </c>
       <c r="D83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.41764800000000002</v>
       </c>
       <c r="E83">
@@ -27089,8 +29915,23 @@
       <c r="M83">
         <v>530.88699999999994</v>
       </c>
+      <c r="T83">
+        <v>0.41764800000000002</v>
+      </c>
+      <c r="U83">
+        <f t="shared" si="5"/>
+        <v>269.45006646227012</v>
+      </c>
+      <c r="V83">
+        <f t="shared" si="6"/>
+        <v>237.54871097921205</v>
+      </c>
+      <c r="W83">
+        <f t="shared" si="7"/>
+        <v>357.16294402583418</v>
+      </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>320768</v>
       </c>
@@ -27102,7 +29943,7 @@
         <v>96768</v>
       </c>
       <c r="D84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.57791999999999999</v>
       </c>
       <c r="E84">
@@ -27132,8 +29973,23 @@
       <c r="M84">
         <v>532.32799999999997</v>
       </c>
+      <c r="T84">
+        <v>0.57791999999999999</v>
+      </c>
+      <c r="U84">
+        <f t="shared" si="5"/>
+        <v>269.50884716349719</v>
+      </c>
+      <c r="V84">
+        <f t="shared" si="6"/>
+        <v>233.63969823461704</v>
+      </c>
+      <c r="W84">
+        <f t="shared" si="7"/>
+        <v>358.1324004305705</v>
+      </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>684848</v>
       </c>
@@ -27145,7 +30001,7 @@
         <v>96768</v>
       </c>
       <c r="D85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.94199999999999995</v>
       </c>
       <c r="E85">
@@ -27175,8 +30031,23 @@
       <c r="M85">
         <v>502.34699999999998</v>
       </c>
+      <c r="T85">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="U85">
+        <f t="shared" si="5"/>
+        <v>250.2327849361094</v>
+      </c>
+      <c r="V85">
+        <f t="shared" si="6"/>
+        <v>223.73039426423887</v>
+      </c>
+      <c r="W85">
+        <f t="shared" si="7"/>
+        <v>337.96219052744885</v>
+      </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>1312512</v>
       </c>
@@ -27188,7 +30059,7 @@
         <v>96768</v>
       </c>
       <c r="D86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.5696639999999999</v>
       </c>
       <c r="E86">
@@ -27218,8 +30089,23 @@
       <c r="M86">
         <v>436.012</v>
       </c>
+      <c r="T86">
+        <v>1.5696639999999999</v>
+      </c>
+      <c r="U86">
+        <f t="shared" si="5"/>
+        <v>235.13082045835586</v>
+      </c>
+      <c r="V86">
+        <f t="shared" si="6"/>
+        <v>217.80845664202806</v>
+      </c>
+      <c r="W86">
+        <f t="shared" si="7"/>
+        <v>293.33423035522065</v>
+      </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>2625040</v>
       </c>
@@ -27231,7 +30117,7 @@
         <v>96768</v>
       </c>
       <c r="D87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2.8821919999999999</v>
       </c>
       <c r="E87">
@@ -27261,8 +30147,23 @@
       <c r="M87">
         <v>348.90600000000001</v>
       </c>
+      <c r="T87">
+        <v>2.8821919999999999</v>
+      </c>
+      <c r="U87">
+        <f t="shared" si="5"/>
+        <v>227.0865479029317</v>
+      </c>
+      <c r="V87">
+        <f t="shared" si="6"/>
+        <v>212.75326242216644</v>
+      </c>
+      <c r="W87">
+        <f t="shared" si="7"/>
+        <v>234.7322389666308</v>
+      </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>160496</v>
       </c>
@@ -27274,7 +30175,7 @@
         <v>96768</v>
       </c>
       <c r="D88">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.599688</v>
       </c>
       <c r="E88">
@@ -27304,8 +30205,23 @@
       <c r="M88">
         <v>531.14700000000005</v>
       </c>
+      <c r="T88">
+        <v>0.599688</v>
+      </c>
+      <c r="U88">
+        <f t="shared" si="5"/>
+        <v>239.04240894001026</v>
+      </c>
+      <c r="V88">
+        <f t="shared" si="6"/>
+        <v>219.29578832045931</v>
+      </c>
+      <c r="W88">
+        <f t="shared" si="7"/>
+        <v>357.33786329386442</v>
+      </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>320768</v>
       </c>
@@ -27317,7 +30233,7 @@
         <v>96768</v>
       </c>
       <c r="D89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.75995999999999997</v>
       </c>
       <c r="E89">
@@ -27347,8 +30263,23 @@
       <c r="M89">
         <v>532.58799999999997</v>
       </c>
+      <c r="T89">
+        <v>0.75995999999999997</v>
+      </c>
+      <c r="U89">
+        <f t="shared" si="5"/>
+        <v>239.67964517831257</v>
+      </c>
+      <c r="V89">
+        <f t="shared" si="6"/>
+        <v>217.98319211194166</v>
+      </c>
+      <c r="W89">
+        <f t="shared" si="7"/>
+        <v>358.30731969860062</v>
+      </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>684848</v>
       </c>
@@ -27360,7 +30291,7 @@
         <v>96768</v>
       </c>
       <c r="D90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.1240399999999999</v>
       </c>
       <c r="E90">
@@ -27390,8 +30321,23 @@
       <c r="M90">
         <v>502.60700000000003</v>
       </c>
+      <c r="T90">
+        <v>1.1240399999999999</v>
+      </c>
+      <c r="U90">
+        <f t="shared" si="5"/>
+        <v>230.81110688068185</v>
+      </c>
+      <c r="V90">
+        <f t="shared" si="6"/>
+        <v>213.47508632764288</v>
+      </c>
+      <c r="W90">
+        <f t="shared" si="7"/>
+        <v>338.13710979547903</v>
+      </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>1312512</v>
       </c>
@@ -27403,7 +30349,7 @@
         <v>96768</v>
       </c>
       <c r="D91">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.7517039999999999</v>
       </c>
       <c r="E91">
@@ -27433,8 +30379,23 @@
       <c r="M91">
         <v>436.27199999999999</v>
       </c>
+      <c r="T91">
+        <v>1.7517039999999999</v>
+      </c>
+      <c r="U91">
+        <f t="shared" si="5"/>
+        <v>219.02490832214497</v>
+      </c>
+      <c r="V91">
+        <f t="shared" si="6"/>
+        <v>212.61493017515153</v>
+      </c>
+      <c r="W91">
+        <f t="shared" si="7"/>
+        <v>293.50914962325083</v>
+      </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>2625040</v>
       </c>
@@ -27446,7 +30407,7 @@
         <v>96768</v>
       </c>
       <c r="D92">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3.0642320000000001</v>
       </c>
       <c r="E92">
@@ -27476,8 +30437,23 @@
       <c r="M92">
         <v>349.166</v>
       </c>
+      <c r="T92">
+        <v>3.0642320000000001</v>
+      </c>
+      <c r="U92">
+        <f t="shared" si="5"/>
+        <v>218.57002585014928</v>
+      </c>
+      <c r="V92">
+        <f t="shared" si="6"/>
+        <v>206.26516800954113</v>
+      </c>
+      <c r="W92">
+        <f t="shared" si="7"/>
+        <v>234.90715823466093</v>
+      </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>160496</v>
       </c>
@@ -27489,7 +30465,7 @@
         <v>96768</v>
       </c>
       <c r="D93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.91352</v>
       </c>
       <c r="E93">
@@ -27519,8 +30495,23 @@
       <c r="M93">
         <v>531.33100000000002</v>
       </c>
+      <c r="T93">
+        <v>0.91352</v>
+      </c>
+      <c r="U93">
+        <f t="shared" si="5"/>
+        <v>222.60919517196695</v>
+      </c>
+      <c r="V93">
+        <f t="shared" si="6"/>
+        <v>211.93332316354409</v>
+      </c>
+      <c r="W93">
+        <f t="shared" si="7"/>
+        <v>357.4616523143165</v>
+      </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>320768</v>
       </c>
@@ -27532,7 +30523,7 @@
         <v>96768</v>
       </c>
       <c r="D94">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.0737920000000001</v>
       </c>
       <c r="E94">
@@ -27562,8 +30553,23 @@
       <c r="M94">
         <v>532.77200000000005</v>
       </c>
+      <c r="T94">
+        <v>1.0737920000000001</v>
+      </c>
+      <c r="U94">
+        <f t="shared" si="5"/>
+        <v>223.24242363518559</v>
+      </c>
+      <c r="V94">
+        <f t="shared" si="6"/>
+        <v>210.87589621267804</v>
+      </c>
+      <c r="W94">
+        <f t="shared" si="7"/>
+        <v>358.43110871905282</v>
+      </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>684848</v>
       </c>
@@ -27575,7 +30581,7 @@
         <v>96768</v>
       </c>
       <c r="D95">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.437872</v>
       </c>
       <c r="E95">
@@ -27605,8 +30611,23 @@
       <c r="M95">
         <v>502.79</v>
       </c>
+      <c r="T95">
+        <v>1.437872</v>
+      </c>
+      <c r="U95">
+        <f t="shared" si="5"/>
+        <v>221.5371153370873</v>
+      </c>
+      <c r="V95">
+        <f t="shared" si="6"/>
+        <v>211.48226989696155</v>
+      </c>
+      <c r="W95">
+        <f t="shared" si="7"/>
+        <v>338.26022604951561</v>
+      </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>1312512</v>
       </c>
@@ -27618,7 +30639,7 @@
         <v>96768</v>
       </c>
       <c r="D96">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2.0655359999999998</v>
       </c>
       <c r="E96">
@@ -27648,8 +30669,23 @@
       <c r="M96">
         <v>436.45600000000002</v>
       </c>
+      <c r="T96">
+        <v>2.0655359999999998</v>
+      </c>
+      <c r="U96">
+        <f t="shared" si="5"/>
+        <v>217.75043584554035</v>
+      </c>
+      <c r="V96">
+        <f t="shared" si="6"/>
+        <v>209.22839035349261</v>
+      </c>
+      <c r="W96">
+        <f t="shared" si="7"/>
+        <v>293.63293864370291</v>
+      </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>2625040</v>
       </c>
@@ -27661,7 +30697,7 @@
         <v>96768</v>
       </c>
       <c r="D97">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3.3780640000000002</v>
       </c>
       <c r="E97">
@@ -27691,8 +30727,23 @@
       <c r="M97">
         <v>349.35</v>
       </c>
+      <c r="T97">
+        <v>3.3780640000000002</v>
+      </c>
+      <c r="U97">
+        <f t="shared" si="5"/>
+        <v>211.25917613503529</v>
+      </c>
+      <c r="V97">
+        <f t="shared" si="6"/>
+        <v>205.99717094953473</v>
+      </c>
+      <c r="W97">
+        <f t="shared" si="7"/>
+        <v>235.03094725511306</v>
+      </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>160496</v>
       </c>
@@ -27704,7 +30755,7 @@
         <v>96768</v>
       </c>
       <c r="D98">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.5697840000000001</v>
       </c>
       <c r="E98">
@@ -27734,8 +30785,23 @@
       <c r="M98">
         <v>532.096</v>
       </c>
+      <c r="T98">
+        <v>1.5697840000000001</v>
+      </c>
+      <c r="U98">
+        <f t="shared" si="5"/>
+        <v>222.91645792838108</v>
+      </c>
+      <c r="V98">
+        <f t="shared" si="6"/>
+        <v>212.28626107698071</v>
+      </c>
+      <c r="W98">
+        <f t="shared" si="7"/>
+        <v>357.9763186221744</v>
+      </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>320768</v>
       </c>
@@ -27747,7 +30813,7 @@
         <v>96768</v>
       </c>
       <c r="D99">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.730056</v>
       </c>
       <c r="E99">
@@ -27777,8 +30843,23 @@
       <c r="M99">
         <v>533.53800000000001</v>
       </c>
+      <c r="T99">
+        <v>1.730056</v>
+      </c>
+      <c r="U99">
+        <f t="shared" si="5"/>
+        <v>223.54968639159969</v>
+      </c>
+      <c r="V99">
+        <f t="shared" si="6"/>
+        <v>211.22294027097868</v>
+      </c>
+      <c r="W99">
+        <f t="shared" si="7"/>
+        <v>358.94644779332617</v>
+      </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>684848</v>
       </c>
@@ -27790,7 +30871,7 @@
         <v>96768</v>
       </c>
       <c r="D100">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2.0941360000000002</v>
       </c>
       <c r="E100">
@@ -27820,8 +30901,23 @@
       <c r="M100">
         <v>503.55599999999998</v>
       </c>
+      <c r="T100">
+        <v>2.0941360000000002</v>
+      </c>
+      <c r="U100">
+        <f t="shared" si="5"/>
+        <v>221.84437809350138</v>
+      </c>
+      <c r="V100">
+        <f t="shared" si="6"/>
+        <v>211.8355545077591</v>
+      </c>
+      <c r="W100">
+        <f t="shared" si="7"/>
+        <v>338.77556512378902</v>
+      </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>1312512</v>
       </c>
@@ -27833,7 +30929,7 @@
         <v>96768</v>
       </c>
       <c r="D101">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2.7218</v>
       </c>
       <c r="E101">
@@ -27863,8 +30959,23 @@
       <c r="M101">
         <v>437.22199999999998</v>
       </c>
+      <c r="T101">
+        <v>2.7218</v>
+      </c>
+      <c r="U101">
+        <f t="shared" si="5"/>
+        <v>218.05769860195446</v>
+      </c>
+      <c r="V101">
+        <f t="shared" si="6"/>
+        <v>209.57543441179325</v>
+      </c>
+      <c r="W101">
+        <f t="shared" si="7"/>
+        <v>294.14827771797633</v>
+      </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>2625040</v>
       </c>
@@ -27876,7 +30987,7 @@
         <v>96768</v>
       </c>
       <c r="D102">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4.0343280000000004</v>
       </c>
       <c r="E102">
@@ -27906,8 +31017,23 @@
       <c r="M102">
         <v>350.11599999999999</v>
       </c>
+      <c r="T102">
+        <v>4.0343280000000004</v>
+      </c>
+      <c r="U102">
+        <f t="shared" si="5"/>
+        <v>211.56577092893545</v>
+      </c>
+      <c r="V102">
+        <f t="shared" si="6"/>
+        <v>206.34421500783537</v>
+      </c>
+      <c r="W102">
+        <f t="shared" si="7"/>
+        <v>235.54628632938645</v>
+      </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>160496</v>
       </c>
@@ -27919,7 +31045,7 @@
         <v>181248</v>
       </c>
       <c r="D103">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.42199199999999998</v>
       </c>
       <c r="E103">
@@ -27949,8 +31075,23 @@
       <c r="M103">
         <v>533.23199999999997</v>
       </c>
+      <c r="T103">
+        <v>0.42199199999999998</v>
+      </c>
+      <c r="U103">
+        <f t="shared" si="5"/>
+        <v>324.40868618453129</v>
+      </c>
+      <c r="V103">
+        <f t="shared" si="6"/>
+        <v>281.03773454076469</v>
+      </c>
+      <c r="W103">
+        <f t="shared" si="7"/>
+        <v>358.74058127018299</v>
+      </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>320768</v>
       </c>
@@ -27962,7 +31103,7 @@
         <v>181248</v>
       </c>
       <c r="D104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.582264</v>
       </c>
       <c r="E104">
@@ -27992,8 +31133,23 @@
       <c r="M104">
         <v>534.5</v>
       </c>
+      <c r="T104">
+        <v>0.582264</v>
+      </c>
+      <c r="U104">
+        <f t="shared" si="5"/>
+        <v>284.75776339431832</v>
+      </c>
+      <c r="V104">
+        <f t="shared" si="6"/>
+        <v>251.11220513389452</v>
+      </c>
+      <c r="W104">
+        <f t="shared" si="7"/>
+        <v>359.59364908503767</v>
+      </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>684848</v>
       </c>
@@ -28005,7 +31161,7 @@
         <v>181248</v>
       </c>
       <c r="D105">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.94634399999999996</v>
       </c>
       <c r="E105">
@@ -28035,8 +31191,23 @@
       <c r="M105">
         <v>504.5</v>
       </c>
+      <c r="T105">
+        <v>0.94634399999999996</v>
+      </c>
+      <c r="U105">
+        <f t="shared" si="5"/>
+        <v>256.39674301478198</v>
+      </c>
+      <c r="V105">
+        <f t="shared" si="6"/>
+        <v>233.56377151257124</v>
+      </c>
+      <c r="W105">
+        <f t="shared" si="7"/>
+        <v>339.41065662002154</v>
+      </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>1312512</v>
       </c>
@@ -28048,7 +31219,7 @@
         <v>181248</v>
       </c>
       <c r="D106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.5740080000000001</v>
       </c>
       <c r="E106">
@@ -28078,8 +31249,23 @@
       <c r="M106">
         <v>438.10700000000003</v>
       </c>
+      <c r="T106">
+        <v>1.5740080000000001</v>
+      </c>
+      <c r="U106">
+        <f t="shared" si="5"/>
+        <v>237.443306681629</v>
+      </c>
+      <c r="V106">
+        <f t="shared" si="6"/>
+        <v>222.25762387496707</v>
+      </c>
+      <c r="W106">
+        <f t="shared" si="7"/>
+        <v>294.74367599569433</v>
+      </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>2625040</v>
       </c>
@@ -28091,7 +31277,7 @@
         <v>181248</v>
       </c>
       <c r="D107">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2.886536</v>
       </c>
       <c r="E107">
@@ -28121,8 +31307,23 @@
       <c r="M107">
         <v>350.81400000000002</v>
       </c>
+      <c r="T107">
+        <v>2.886536</v>
+      </c>
+      <c r="U107">
+        <f t="shared" si="5"/>
+        <v>227.84401739374388</v>
+      </c>
+      <c r="V107">
+        <f t="shared" si="6"/>
+        <v>213.51252964262437</v>
+      </c>
+      <c r="W107">
+        <f t="shared" si="7"/>
+        <v>236.01587728740583</v>
+      </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>160496</v>
       </c>
@@ -28134,7 +31335,7 @@
         <v>181248</v>
       </c>
       <c r="D108">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.50212800000000002</v>
       </c>
       <c r="E108">
@@ -28164,8 +31365,23 @@
       <c r="M108">
         <v>533.50300000000004</v>
       </c>
+      <c r="T108">
+        <v>0.50212800000000002</v>
+      </c>
+      <c r="U108">
+        <f t="shared" si="5"/>
+        <v>270.79667889038069</v>
+      </c>
+      <c r="V108">
+        <f t="shared" si="6"/>
+        <v>238.87933545049859</v>
+      </c>
+      <c r="W108">
+        <f t="shared" si="7"/>
+        <v>358.92290096878367</v>
+      </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>320768</v>
       </c>
@@ -28177,7 +31393,7 @@
         <v>181248</v>
       </c>
       <c r="D109">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.66239999999999999</v>
       </c>
       <c r="E109">
@@ -28207,8 +31423,23 @@
       <c r="M109">
         <v>534.77099999999996</v>
       </c>
+      <c r="T109">
+        <v>0.66239999999999999</v>
+      </c>
+      <c r="U109">
+        <f t="shared" si="5"/>
+        <v>270.65306694988277</v>
+      </c>
+      <c r="V109">
+        <f t="shared" si="6"/>
+        <v>234.76577126294916</v>
+      </c>
+      <c r="W109">
+        <f t="shared" si="7"/>
+        <v>359.77596878363829</v>
+      </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>684848</v>
       </c>
@@ -28220,7 +31451,7 @@
         <v>181248</v>
       </c>
       <c r="D110">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.0264800000000001</v>
       </c>
       <c r="E110">
@@ -28250,8 +31481,23 @@
       <c r="M110">
         <v>504.77100000000002</v>
       </c>
+      <c r="T110">
+        <v>1.0264800000000001</v>
+      </c>
+      <c r="U110">
+        <f t="shared" si="5"/>
+        <v>251.35629788456274</v>
+      </c>
+      <c r="V110">
+        <f t="shared" si="6"/>
+        <v>224.83531875355368</v>
+      </c>
+      <c r="W110">
+        <f t="shared" si="7"/>
+        <v>339.59297631862222</v>
+      </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>1312512</v>
       </c>
@@ -28263,7 +31509,7 @@
         <v>181248</v>
       </c>
       <c r="D111">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.6541440000000001</v>
       </c>
       <c r="E111">
@@ -28293,8 +31539,23 @@
       <c r="M111">
         <v>438.37700000000001</v>
       </c>
+      <c r="T111">
+        <v>1.6541440000000001</v>
+      </c>
+      <c r="U111">
+        <f t="shared" si="5"/>
+        <v>236.18620123038696</v>
+      </c>
+      <c r="V111">
+        <f t="shared" si="6"/>
+        <v>218.84334826443302</v>
+      </c>
+      <c r="W111">
+        <f t="shared" si="7"/>
+        <v>294.92532292787945</v>
+      </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>2625040</v>
       </c>
@@ -28306,7 +31567,7 @@
         <v>181248</v>
       </c>
       <c r="D112">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2.966672</v>
       </c>
       <c r="E112">
@@ -28336,8 +31597,23 @@
       <c r="M112">
         <v>351.084</v>
       </c>
+      <c r="T112">
+        <v>2.966672</v>
+      </c>
+      <c r="U112">
+        <f t="shared" si="5"/>
+        <v>227.92484085793103</v>
+      </c>
+      <c r="V112">
+        <f t="shared" si="6"/>
+        <v>213.56834791773565</v>
+      </c>
+      <c r="W112">
+        <f t="shared" si="7"/>
+        <v>236.19752421959097</v>
+      </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>160496</v>
       </c>
@@ -28349,7 +31625,7 @@
         <v>181248</v>
       </c>
       <c r="D113">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.684168</v>
       </c>
       <c r="E113">
@@ -28379,8 +31655,23 @@
       <c r="M113">
         <v>533.76300000000003</v>
       </c>
+      <c r="T113">
+        <v>0.684168</v>
+      </c>
+      <c r="U113">
+        <f t="shared" si="5"/>
+        <v>240.38902136812084</v>
+      </c>
+      <c r="V113">
+        <f t="shared" si="6"/>
+        <v>220.62641279174582</v>
+      </c>
+      <c r="W113">
+        <f t="shared" si="7"/>
+        <v>359.09782023681379</v>
+      </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>320768</v>
       </c>
@@ -28392,7 +31683,7 @@
         <v>181248</v>
       </c>
       <c r="D114">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.84443999999999997</v>
       </c>
       <c r="E114">
@@ -28422,8 +31713,23 @@
       <c r="M114">
         <v>535.03099999999995</v>
       </c>
+      <c r="T114">
+        <v>0.84443999999999997</v>
+      </c>
+      <c r="U114">
+        <f t="shared" si="5"/>
+        <v>240.82386496469817</v>
+      </c>
+      <c r="V114">
+        <f t="shared" si="6"/>
+        <v>219.10891844291282</v>
+      </c>
+      <c r="W114">
+        <f t="shared" si="7"/>
+        <v>359.95088805166841</v>
+      </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>684848</v>
       </c>
@@ -28435,7 +31741,7 @@
         <v>181248</v>
       </c>
       <c r="D115">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.20852</v>
       </c>
       <c r="E115">
@@ -28465,8 +31771,23 @@
       <c r="M115">
         <v>505.03100000000001</v>
       </c>
+      <c r="T115">
+        <v>1.20852</v>
+      </c>
+      <c r="U115">
+        <f t="shared" si="5"/>
+        <v>231.93528779164913</v>
+      </c>
+      <c r="V115">
+        <f t="shared" si="6"/>
+        <v>214.57966411959674</v>
+      </c>
+      <c r="W115">
+        <f t="shared" si="7"/>
+        <v>339.76789558665234</v>
+      </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>1312512</v>
       </c>
@@ -28478,7 +31799,7 @@
         <v>181248</v>
       </c>
       <c r="D116">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.836184</v>
       </c>
       <c r="E116">
@@ -28508,8 +31829,23 @@
       <c r="M116">
         <v>438.637</v>
       </c>
+      <c r="T116">
+        <v>1.836184</v>
+      </c>
+      <c r="U116">
+        <f t="shared" si="5"/>
+        <v>220.08028909417604</v>
+      </c>
+      <c r="V116">
+        <f t="shared" si="6"/>
+        <v>213.65016849491741</v>
+      </c>
+      <c r="W116">
+        <f t="shared" si="7"/>
+        <v>295.10024219590957</v>
+      </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>2625040</v>
       </c>
@@ -28521,7 +31857,7 @@
         <v>181248</v>
       </c>
       <c r="D117">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3.1487120000000002</v>
       </c>
       <c r="E117">
@@ -28551,8 +31887,23 @@
       <c r="M117">
         <v>351.34399999999999</v>
       </c>
+      <c r="T117">
+        <v>3.1487120000000002</v>
+      </c>
+      <c r="U117">
+        <f t="shared" si="5"/>
+        <v>219.40831880514864</v>
+      </c>
+      <c r="V117">
+        <f t="shared" si="6"/>
+        <v>207.08025350511031</v>
+      </c>
+      <c r="W117">
+        <f t="shared" si="7"/>
+        <v>236.3724434876211</v>
+      </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>160496</v>
       </c>
@@ -28564,7 +31915,7 @@
         <v>181248</v>
       </c>
       <c r="D118">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.998</v>
       </c>
       <c r="E118">
@@ -28594,8 +31945,23 @@
       <c r="M118">
         <v>533.947</v>
       </c>
+      <c r="T118">
+        <v>0.998</v>
+      </c>
+      <c r="U118">
+        <f t="shared" si="5"/>
+        <v>223.95580760007749</v>
+      </c>
+      <c r="V118">
+        <f t="shared" si="6"/>
+        <v>213.26360093746968</v>
+      </c>
+      <c r="W118">
+        <f t="shared" si="7"/>
+        <v>359.22160925726587</v>
+      </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>320768</v>
       </c>
@@ -28607,7 +31973,7 @@
         <v>181248</v>
       </c>
       <c r="D119">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.158272</v>
       </c>
       <c r="E119">
@@ -28637,8 +32003,23 @@
       <c r="M119">
         <v>535.21400000000006</v>
       </c>
+      <c r="T119">
+        <v>1.158272</v>
+      </c>
+      <c r="U119">
+        <f t="shared" si="5"/>
+        <v>224.38731138408514</v>
+      </c>
+      <c r="V119">
+        <f t="shared" si="6"/>
+        <v>212.00196924101013</v>
+      </c>
+      <c r="W119">
+        <f t="shared" si="7"/>
+        <v>360.0740043057051</v>
+      </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>684848</v>
       </c>
@@ -28650,7 +32031,7 @@
         <v>181248</v>
       </c>
       <c r="D120">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.5223519999999999</v>
       </c>
       <c r="E120">
@@ -28680,8 +32061,23 @@
       <c r="M120">
         <v>505.21499999999997</v>
       </c>
+      <c r="T120">
+        <v>1.5223519999999999</v>
+      </c>
+      <c r="U120">
+        <f t="shared" si="5"/>
+        <v>222.66129624805455</v>
+      </c>
+      <c r="V120">
+        <f t="shared" si="6"/>
+        <v>212.58719438627634</v>
+      </c>
+      <c r="W120">
+        <f t="shared" si="7"/>
+        <v>339.89168460710442</v>
+      </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>1312512</v>
       </c>
@@ -28693,7 +32089,7 @@
         <v>181248</v>
       </c>
       <c r="D121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2.1500159999999999</v>
       </c>
       <c r="E121">
@@ -28723,8 +32119,23 @@
       <c r="M121">
         <v>438.82100000000003</v>
       </c>
+      <c r="T121">
+        <v>2.1500159999999999</v>
+      </c>
+      <c r="U121">
+        <f t="shared" si="5"/>
+        <v>218.80514865505748</v>
+      </c>
+      <c r="V121">
+        <f t="shared" si="6"/>
+        <v>210.26362867325855</v>
+      </c>
+      <c r="W121">
+        <f t="shared" si="7"/>
+        <v>295.22403121636171</v>
+      </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>2625040</v>
       </c>
@@ -28736,7 +32147,7 @@
         <v>181248</v>
       </c>
       <c r="D122">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3.4625439999999998</v>
       </c>
       <c r="E122">
@@ -28766,8 +32177,23 @@
       <c r="M122">
         <v>351.52800000000002</v>
       </c>
+      <c r="T122">
+        <v>3.4625439999999998</v>
+      </c>
+      <c r="U122">
+        <f t="shared" si="5"/>
+        <v>212.09680112752073</v>
+      </c>
+      <c r="V122">
+        <f t="shared" si="6"/>
+        <v>206.81260314246489</v>
+      </c>
+      <c r="W122">
+        <f t="shared" si="7"/>
+        <v>236.49623250807321</v>
+      </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>160496</v>
       </c>
@@ -28779,7 +32205,7 @@
         <v>181248</v>
       </c>
       <c r="D123">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.654264</v>
       </c>
       <c r="E123">
@@ -28809,8 +32235,23 @@
       <c r="M123">
         <v>534.71199999999999</v>
       </c>
+      <c r="T123">
+        <v>1.654264</v>
+      </c>
+      <c r="U123">
+        <f t="shared" si="5"/>
+        <v>224.26240239397762</v>
+      </c>
+      <c r="V123">
+        <f t="shared" si="6"/>
+        <v>213.61688554826719</v>
+      </c>
+      <c r="W123">
+        <f t="shared" si="7"/>
+        <v>359.73627556512378</v>
+      </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>320768</v>
       </c>
@@ -28822,7 +32263,7 @@
         <v>181248</v>
       </c>
       <c r="D124">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.8145359999999999</v>
       </c>
       <c r="E124">
@@ -28852,8 +32293,23 @@
       <c r="M124">
         <v>535.98</v>
       </c>
+      <c r="T124">
+        <v>1.8145359999999999</v>
+      </c>
+      <c r="U124">
+        <f t="shared" si="5"/>
+        <v>224.69390617798527</v>
+      </c>
+      <c r="V124">
+        <f t="shared" si="6"/>
+        <v>212.34901329931077</v>
+      </c>
+      <c r="W124">
+        <f t="shared" si="7"/>
+        <v>360.58934337997852</v>
+      </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>684848</v>
       </c>
@@ -28865,7 +32321,7 @@
         <v>181248</v>
       </c>
       <c r="D125">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2.1786159999999999</v>
       </c>
       <c r="E125">
@@ -28895,8 +32351,23 @@
       <c r="M125">
         <v>505.98</v>
       </c>
+      <c r="T125">
+        <v>2.1786159999999999</v>
+      </c>
+      <c r="U125">
+        <f t="shared" si="5"/>
+        <v>222.96789104195474</v>
+      </c>
+      <c r="V125">
+        <f t="shared" si="6"/>
+        <v>212.94047899707388</v>
+      </c>
+      <c r="W125">
+        <f t="shared" si="7"/>
+        <v>340.40635091496233</v>
+      </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>1312512</v>
       </c>
@@ -28908,7 +32379,7 @@
         <v>181248</v>
       </c>
       <c r="D126">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2.8062800000000001</v>
       </c>
       <c r="E126">
@@ -28938,8 +32409,23 @@
       <c r="M126">
         <v>439.58699999999999</v>
       </c>
+      <c r="T126">
+        <v>2.8062800000000001</v>
+      </c>
+      <c r="U126">
+        <f t="shared" si="5"/>
+        <v>219.11241141147158</v>
+      </c>
+      <c r="V126">
+        <f t="shared" si="6"/>
+        <v>210.61067273155919</v>
+      </c>
+      <c r="W126">
+        <f t="shared" si="7"/>
+        <v>295.73937029063512</v>
+      </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>2625040</v>
       </c>
@@ -28951,7 +32437,7 @@
         <v>181248</v>
       </c>
       <c r="D127">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4.1188079999999996</v>
       </c>
       <c r="E127">
@@ -28981,25 +32467,40 @@
       <c r="M127">
         <v>352.29399999999998</v>
       </c>
+      <c r="T127">
+        <v>4.1188079999999996</v>
+      </c>
+      <c r="U127">
+        <f t="shared" si="5"/>
+        <v>212.40406388393484</v>
+      </c>
+      <c r="V127">
+        <f t="shared" si="6"/>
+        <v>207.15930050340458</v>
+      </c>
+      <c r="W127">
+        <f t="shared" si="7"/>
+        <v>237.01157158234662</v>
+      </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="E129" s="4" t="s">
+    <row r="129" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="E129" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F129" s="4"/>
-      <c r="G129" s="4"/>
-      <c r="H129" s="4" t="s">
+      <c r="F129" s="5"/>
+      <c r="G129" s="5"/>
+      <c r="H129" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I129" s="4"/>
-      <c r="J129" s="4"/>
-      <c r="K129" s="4" t="s">
+      <c r="I129" s="5"/>
+      <c r="J129" s="5"/>
+      <c r="K129" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="L129" s="4"/>
-      <c r="M129" s="4"/>
+      <c r="L129" s="5"/>
+      <c r="M129" s="5"/>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>10</v>
       </c>
@@ -29040,7 +32541,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>160496</v>
       </c>
@@ -29082,8 +32583,23 @@
       <c r="M131">
         <v>638.77499999999998</v>
       </c>
+      <c r="T131">
+        <v>0.18171999999999999</v>
+      </c>
+      <c r="X131">
+        <f>G131/U$2</f>
+        <v>368.32922536387258</v>
+      </c>
+      <c r="Y131">
+        <f>J131/V$2</f>
+        <v>351.24256334160788</v>
+      </c>
+      <c r="Z131">
+        <f>M131/W$2</f>
+        <v>429.7463670613563</v>
+      </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>320768</v>
       </c>
@@ -29095,7 +32611,7 @@
         <v>0</v>
       </c>
       <c r="D132">
-        <f t="shared" ref="D132:D195" si="2">(A132+B132+C132)/1000000</f>
+        <f t="shared" ref="D132:D195" si="8">(A132+B132+C132)/1000000</f>
         <v>0.34199200000000002</v>
       </c>
       <c r="E132">
@@ -29125,8 +32641,23 @@
       <c r="M132">
         <v>569.16600000000005</v>
       </c>
+      <c r="T132">
+        <v>0.34199200000000002</v>
+      </c>
+      <c r="X132">
+        <f>G132/U$2</f>
+        <v>373.50660280945027</v>
+      </c>
+      <c r="Y132">
+        <f>J132/V$2</f>
+        <v>357.29589926361484</v>
+      </c>
+      <c r="Z132">
+        <f>M132/W$2</f>
+        <v>382.9157696447794</v>
+      </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>684848</v>
       </c>
@@ -29138,7 +32669,7 @@
         <v>0</v>
       </c>
       <c r="D133">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.70607200000000003</v>
       </c>
       <c r="E133">
@@ -29168,8 +32699,23 @@
       <c r="M133">
         <v>565.46299999999997</v>
       </c>
+      <c r="T133">
+        <v>0.70607200000000003</v>
+      </c>
+      <c r="X133">
+        <f>G133/U$2</f>
+        <v>381.13673860622941</v>
+      </c>
+      <c r="Y133">
+        <f>J133/V$2</f>
+        <v>374.91852612017919</v>
+      </c>
+      <c r="Z133">
+        <f>M133/W$2</f>
+        <v>380.42451560818085</v>
+      </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>1312512</v>
       </c>
@@ -29181,7 +32727,7 @@
         <v>0</v>
       </c>
       <c r="D134">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1.333736</v>
       </c>
       <c r="E134">
@@ -29211,8 +32757,23 @@
       <c r="M134">
         <v>710.63800000000003</v>
       </c>
+      <c r="T134">
+        <v>1.333736</v>
+      </c>
+      <c r="X134">
+        <f>G134/U$2</f>
+        <v>445.39473244761501</v>
+      </c>
+      <c r="Y134">
+        <f>J134/V$2</f>
+        <v>449.05975675713159</v>
+      </c>
+      <c r="Z134">
+        <f>M134/W$2</f>
+        <v>478.09337997847149</v>
+      </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>2625040</v>
       </c>
@@ -29224,7 +32785,7 @@
         <v>0</v>
       </c>
       <c r="D135">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>2.6462639999999999</v>
       </c>
       <c r="E135">
@@ -29254,8 +32815,23 @@
       <c r="M135">
         <v>1030.76</v>
       </c>
+      <c r="T135">
+        <v>2.6462639999999999</v>
+      </c>
+      <c r="X135">
+        <f>G135/U$2</f>
+        <v>633.95186662124524</v>
+      </c>
+      <c r="Y135">
+        <f>J135/V$2</f>
+        <v>626.29144766950037</v>
+      </c>
+      <c r="Z135">
+        <f>M135/W$2</f>
+        <v>693.46071044133475</v>
+      </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>160496</v>
       </c>
@@ -29267,7 +32843,7 @@
         <v>0</v>
       </c>
       <c r="D136">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.18720300000000001</v>
       </c>
       <c r="E136">
@@ -29297,8 +32873,23 @@
       <c r="M136">
         <v>639.03300000000002</v>
       </c>
+      <c r="T136">
+        <v>0.18720300000000001</v>
+      </c>
+      <c r="X136">
+        <f>G136/U$2</f>
+        <v>367.06143251240741</v>
+      </c>
+      <c r="Y136">
+        <f>J136/V$2</f>
+        <v>347.81025946830493</v>
+      </c>
+      <c r="Z136">
+        <f>M136/W$2</f>
+        <v>429.91994079655547</v>
+      </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>320768</v>
       </c>
@@ -29310,7 +32901,7 @@
         <v>0</v>
       </c>
       <c r="D137">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.34747499999999998</v>
       </c>
       <c r="E137">
@@ -29340,8 +32931,23 @@
       <c r="M137">
         <v>569.41999999999996</v>
       </c>
+      <c r="T137">
+        <v>0.34747499999999998</v>
+      </c>
+      <c r="X137">
+        <f>G137/U$2</f>
+        <v>373.5767388734144</v>
+      </c>
+      <c r="Y137">
+        <f>J137/V$2</f>
+        <v>357.25776255391145</v>
+      </c>
+      <c r="Z137">
+        <f>M137/W$2</f>
+        <v>383.08665231431644</v>
+      </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>684848</v>
       </c>
@@ -29353,7 +32959,7 @@
         <v>0</v>
       </c>
       <c r="D138">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.71155500000000005</v>
       </c>
       <c r="E138">
@@ -29383,8 +32989,23 @@
       <c r="M138">
         <v>565.71699999999998</v>
       </c>
+      <c r="T138">
+        <v>0.71155500000000005</v>
+      </c>
+      <c r="X138">
+        <f>G138/U$2</f>
+        <v>381.17882024460789</v>
+      </c>
+      <c r="Y138">
+        <f>J138/V$2</f>
+        <v>372.63032353797723</v>
+      </c>
+      <c r="Z138">
+        <f>M138/W$2</f>
+        <v>380.595398277718</v>
+      </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>1312512</v>
       </c>
@@ -29396,7 +33017,7 @@
         <v>0</v>
       </c>
       <c r="D139">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1.3392189999999999</v>
       </c>
       <c r="E139">
@@ -29426,8 +33047,23 @@
       <c r="M139">
         <v>710.89300000000003</v>
       </c>
+      <c r="T139">
+        <v>1.3392189999999999</v>
+      </c>
+      <c r="X139">
+        <f>G139/U$2</f>
+        <v>445.44950537375837</v>
+      </c>
+      <c r="Y139">
+        <f>J139/V$2</f>
+        <v>449.11869530849134</v>
+      </c>
+      <c r="Z139">
+        <f>M139/W$2</f>
+        <v>478.26493541442414</v>
+      </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>2625040</v>
       </c>
@@ -29439,7 +33075,7 @@
         <v>0</v>
       </c>
       <c r="D140">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>2.6517469999999999</v>
       </c>
       <c r="E140">
@@ -29469,8 +33105,23 @@
       <c r="M140">
         <v>1031.02</v>
       </c>
+      <c r="T140">
+        <v>2.6517469999999999</v>
+      </c>
+      <c r="X140">
+        <f>G140/U$2</f>
+        <v>634.00530362236066</v>
+      </c>
+      <c r="Y140">
+        <f>J140/V$2</f>
+        <v>626.35038622086017</v>
+      </c>
+      <c r="Z140">
+        <f>M140/W$2</f>
+        <v>693.63562970936493</v>
+      </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>160496</v>
       </c>
@@ -29482,7 +33133,7 @@
         <v>0</v>
       </c>
       <c r="D141">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.19780400000000001</v>
       </c>
       <c r="E141">
@@ -29512,8 +33163,23 @@
       <c r="M141">
         <v>639.29200000000003</v>
       </c>
+      <c r="T141">
+        <v>0.19780400000000001</v>
+      </c>
+      <c r="X141">
+        <f>G141/U$2</f>
+        <v>350.61419153157124</v>
+      </c>
+      <c r="Y141">
+        <f>J141/V$2</f>
+        <v>342.61707969878933</v>
+      </c>
+      <c r="Z141">
+        <f>M141/W$2</f>
+        <v>430.09418729817008</v>
+      </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>320768</v>
       </c>
@@ -29525,7 +33191,7 @@
         <v>0</v>
       </c>
       <c r="D142">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.35807600000000001</v>
       </c>
       <c r="E142">
@@ -29555,8 +33221,23 @@
       <c r="M142">
         <v>569.67899999999997</v>
       </c>
+      <c r="T142">
+        <v>0.35807600000000001</v>
+      </c>
+      <c r="X142">
+        <f>G142/U$2</f>
+        <v>364.70486076321396</v>
+      </c>
+      <c r="Y142">
+        <f>J142/V$2</f>
+        <v>350.69131453771377</v>
+      </c>
+      <c r="Z142">
+        <f>M142/W$2</f>
+        <v>383.26089881593111</v>
+      </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>684848</v>
       </c>
@@ -29568,7 +33249,7 @@
         <v>0</v>
       </c>
       <c r="D143">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.72215600000000002</v>
       </c>
       <c r="E143">
@@ -29598,8 +33279,23 @@
       <c r="M143">
         <v>565.97500000000002</v>
       </c>
+      <c r="T143">
+        <v>0.72215600000000002</v>
+      </c>
+      <c r="X143">
+        <f>G143/U$2</f>
+        <v>378.19636761984913</v>
+      </c>
+      <c r="Y143">
+        <f>J143/V$2</f>
+        <v>370.217309905837</v>
+      </c>
+      <c r="Z143">
+        <f>M143/W$2</f>
+        <v>380.76897201291712</v>
+      </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>1312512</v>
       </c>
@@ -29611,7 +33307,7 @@
         <v>0</v>
       </c>
       <c r="D144">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1.34982</v>
       </c>
       <c r="E144">
@@ -29641,8 +33337,23 @@
       <c r="M144">
         <v>711.15099999999995</v>
       </c>
+      <c r="T144">
+        <v>1.34982</v>
+      </c>
+      <c r="X144">
+        <f>G144/U$2</f>
+        <v>445.56706677621253</v>
+      </c>
+      <c r="Y144">
+        <f>J144/V$2</f>
+        <v>449.2608412264766</v>
+      </c>
+      <c r="Z144">
+        <f>M144/W$2</f>
+        <v>478.43850914962326</v>
+      </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>2625040</v>
       </c>
@@ -29654,7 +33365,7 @@
         <v>0</v>
       </c>
       <c r="D145">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>2.6623480000000002</v>
       </c>
       <c r="E145">
@@ -29684,8 +33395,23 @@
       <c r="M145">
         <v>1031.27</v>
       </c>
+      <c r="T145">
+        <v>2.6623480000000002</v>
+      </c>
+      <c r="X145">
+        <f>G145/U$2</f>
+        <v>634.12086113727298</v>
+      </c>
+      <c r="Y145">
+        <f>J145/V$2</f>
+        <v>626.49253213884538</v>
+      </c>
+      <c r="Z145">
+        <f>M145/W$2</f>
+        <v>693.80382131324006</v>
+      </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>160496</v>
       </c>
@@ -29697,7 +33423,7 @@
         <v>0</v>
       </c>
       <c r="D146">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.22158600000000001</v>
       </c>
       <c r="E146">
@@ -29727,8 +33453,23 @@
       <c r="M146">
         <v>639.471</v>
       </c>
+      <c r="T146">
+        <v>0.22158600000000001</v>
+      </c>
+      <c r="X146">
+        <f>G146/U$2</f>
+        <v>349.3363792423969</v>
+      </c>
+      <c r="Y146">
+        <f>J146/V$2</f>
+        <v>339.10919580080156</v>
+      </c>
+      <c r="Z146">
+        <f>M146/W$2</f>
+        <v>430.2146124865447</v>
+      </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>320768</v>
       </c>
@@ -29740,7 +33481,7 @@
         <v>0</v>
       </c>
       <c r="D147">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.38185799999999998</v>
       </c>
       <c r="E147">
@@ -29770,8 +33511,23 @@
       <c r="M147">
         <v>569.85699999999997</v>
       </c>
+      <c r="T147">
+        <v>0.38185799999999998</v>
+      </c>
+      <c r="X147">
+        <f>G147/U$2</f>
+        <v>357.27177390804832</v>
+      </c>
+      <c r="Y147">
+        <f>J147/V$2</f>
+        <v>350.35848507121165</v>
+      </c>
+      <c r="Z147">
+        <f>M147/W$2</f>
+        <v>383.38065123789022</v>
+      </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>684848</v>
       </c>
@@ -29783,7 +33539,7 @@
         <v>0</v>
       </c>
       <c r="D148">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.74593799999999999</v>
       </c>
       <c r="E148">
@@ -29813,8 +33569,23 @@
       <c r="M148">
         <v>566.154</v>
       </c>
+      <c r="T148">
+        <v>0.74593799999999999</v>
+      </c>
+      <c r="X148">
+        <f>G148/U$2</f>
+        <v>371.06052408338843</v>
+      </c>
+      <c r="Y148">
+        <f>J148/V$2</f>
+        <v>370.27971543080616</v>
+      </c>
+      <c r="Z148">
+        <f>M148/W$2</f>
+        <v>380.88939720129173</v>
+      </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>1312512</v>
       </c>
@@ -29826,7 +33597,7 @@
         <v>0</v>
       </c>
       <c r="D149">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1.373602</v>
       </c>
       <c r="E149">
@@ -29856,8 +33627,23 @@
       <c r="M149">
         <v>711.32899999999995</v>
       </c>
+      <c r="T149">
+        <v>1.373602</v>
+      </c>
+      <c r="X149">
+        <f>G149/U$2</f>
+        <v>444.96256070109342</v>
+      </c>
+      <c r="Y149">
+        <f>J149/V$2</f>
+        <v>448.71999334341069</v>
+      </c>
+      <c r="Z149">
+        <f>M149/W$2</f>
+        <v>478.55826157158231</v>
+      </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>2625040</v>
       </c>
@@ -29869,7 +33655,7 @@
         <v>0</v>
       </c>
       <c r="D150">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>2.6861299999999999</v>
       </c>
       <c r="E150">
@@ -29899,8 +33685,23 @@
       <c r="M150">
         <v>1031.45</v>
       </c>
+      <c r="T150">
+        <v>2.6861299999999999</v>
+      </c>
+      <c r="X150">
+        <f>G150/U$2</f>
+        <v>634.18966127620911</v>
+      </c>
+      <c r="Y150">
+        <f>J150/V$2</f>
+        <v>626.55147069020518</v>
+      </c>
+      <c r="Z150">
+        <f>M150/W$2</f>
+        <v>693.92491926803018</v>
+      </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>160496</v>
       </c>
@@ -29912,7 +33713,7 @@
         <v>0</v>
       </c>
       <c r="D151">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.26750299999999999</v>
       </c>
       <c r="E151">
@@ -29942,8 +33743,23 @@
       <c r="M151">
         <v>640.22299999999996</v>
       </c>
+      <c r="T151">
+        <v>0.26750299999999999</v>
+      </c>
+      <c r="X151">
+        <f>G151/U$2</f>
+        <v>349.63161867356007</v>
+      </c>
+      <c r="Y151">
+        <f>J151/V$2</f>
+        <v>339.44479884619119</v>
+      </c>
+      <c r="Z151">
+        <f>M151/W$2</f>
+        <v>430.72053283100104</v>
+      </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>320768</v>
       </c>
@@ -29955,7 +33771,7 @@
         <v>0</v>
       </c>
       <c r="D152">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.42777500000000002</v>
       </c>
       <c r="E152">
@@ -29985,8 +33801,23 @@
       <c r="M152">
         <v>570.60500000000002</v>
       </c>
+      <c r="T152">
+        <v>0.42777500000000002</v>
+      </c>
+      <c r="X152">
+        <f>G152/U$2</f>
+        <v>357.56768130172532</v>
+      </c>
+      <c r="Y152">
+        <f>J152/V$2</f>
+        <v>350.69478151132313</v>
+      </c>
+      <c r="Z152">
+        <f>M152/W$2</f>
+        <v>383.88388051668466</v>
+      </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>684848</v>
       </c>
@@ -29998,7 +33829,7 @@
         <v>0</v>
       </c>
       <c r="D153">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.79185499999999998</v>
       </c>
       <c r="E153">
@@ -30028,8 +33859,23 @@
       <c r="M153">
         <v>566.90200000000004</v>
       </c>
+      <c r="T153">
+        <v>0.79185499999999998</v>
+      </c>
+      <c r="X153">
+        <f>G153/U$2</f>
+        <v>371.35643147706548</v>
+      </c>
+      <c r="Y153">
+        <f>J153/V$2</f>
+        <v>370.61254489730823</v>
+      </c>
+      <c r="Z153">
+        <f>M153/W$2</f>
+        <v>381.39262648008616</v>
+      </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>1312512</v>
       </c>
@@ -30041,7 +33887,7 @@
         <v>0</v>
       </c>
       <c r="D154">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1.419519</v>
       </c>
       <c r="E154">
@@ -30071,8 +33917,23 @@
       <c r="M154">
         <v>712.077</v>
       </c>
+      <c r="T154">
+        <v>1.419519</v>
+      </c>
+      <c r="X154">
+        <f>G154/U$2</f>
+        <v>445.25780013225653</v>
+      </c>
+      <c r="Y154">
+        <f>J154/V$2</f>
+        <v>449.05975675713159</v>
+      </c>
+      <c r="Z154">
+        <f>M154/W$2</f>
+        <v>479.06149085037674</v>
+      </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>2625040</v>
       </c>
@@ -30084,7 +33945,7 @@
         <v>0</v>
       </c>
       <c r="D155">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>2.7320470000000001</v>
       </c>
       <c r="E155">
@@ -30114,8 +33975,23 @@
       <c r="M155">
         <v>1032.2</v>
       </c>
+      <c r="T155">
+        <v>2.7320470000000001</v>
+      </c>
+      <c r="X155">
+        <f>G155/U$2</f>
+        <v>634.48556866988622</v>
+      </c>
+      <c r="Y155">
+        <f>J155/V$2</f>
+        <v>626.88083318309782</v>
+      </c>
+      <c r="Z155">
+        <f>M155/W$2</f>
+        <v>694.42949407965557</v>
+      </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>160496</v>
       </c>
@@ -30126,7 +34002,7 @@
         <v>29696</v>
       </c>
       <c r="D156">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.21141599999999999</v>
       </c>
       <c r="E156">
@@ -30156,8 +34032,23 @@
       <c r="M156">
         <v>441.70400000000001</v>
       </c>
+      <c r="T156">
+        <v>0.21141599999999999</v>
+      </c>
+      <c r="X156">
+        <f>G156/U$2</f>
+        <v>240.11114896232021</v>
+      </c>
+      <c r="Y156">
+        <f>J156/V$2</f>
+        <v>224.31319252797849</v>
+      </c>
+      <c r="Z156">
+        <f>M156/W$2</f>
+        <v>297.16361679224974</v>
+      </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>320768</v>
       </c>
@@ -30168,7 +34059,7 @@
         <v>29696</v>
       </c>
       <c r="D157">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.37168800000000002</v>
       </c>
       <c r="E157">
@@ -30198,8 +34089,23 @@
       <c r="M157">
         <v>349.77</v>
       </c>
+      <c r="T157">
+        <v>0.37168800000000002</v>
+      </c>
+      <c r="X157">
+        <f>G157/U$2</f>
+        <v>230.845172968893</v>
+      </c>
+      <c r="Y157">
+        <f>J157/V$2</f>
+        <v>216.06560900858423</v>
+      </c>
+      <c r="Z157">
+        <f>M157/W$2</f>
+        <v>235.31350914962326</v>
+      </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>684848</v>
       </c>
@@ -30210,7 +34116,7 @@
         <v>29696</v>
       </c>
       <c r="D158">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.73576799999999998</v>
       </c>
       <c r="E158">
@@ -30240,8 +34146,23 @@
       <c r="M158">
         <v>305.495</v>
       </c>
+      <c r="T158">
+        <v>0.73576799999999998</v>
+      </c>
+      <c r="X158">
+        <f>G158/U$2</f>
+        <v>212.22772178025366</v>
+      </c>
+      <c r="Y158">
+        <f>J158/V$2</f>
+        <v>207.70465545216271</v>
+      </c>
+      <c r="Z158">
+        <f>M158/W$2</f>
+        <v>205.52677610333694</v>
+      </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>1312512</v>
       </c>
@@ -30252,7 +34173,7 @@
         <v>29696</v>
       </c>
       <c r="D159">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1.363432</v>
       </c>
       <c r="E159">
@@ -30282,8 +34203,23 @@
       <c r="M159">
         <v>315.43200000000002</v>
       </c>
+      <c r="T159">
+        <v>1.363432</v>
+      </c>
+      <c r="X159">
+        <f>G159/U$2</f>
+        <v>188.9993253578609</v>
+      </c>
+      <c r="Y159">
+        <f>J159/V$2</f>
+        <v>195.23360468180115</v>
+      </c>
+      <c r="Z159">
+        <f>M159/W$2</f>
+        <v>212.21205597416579</v>
+      </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>2625040</v>
       </c>
@@ -30294,7 +34230,7 @@
         <v>29696</v>
       </c>
       <c r="D160">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>2.6759599999999999</v>
       </c>
       <c r="E160">
@@ -30324,8 +34260,23 @@
       <c r="M160">
         <v>337.4</v>
       </c>
+      <c r="T160">
+        <v>2.6759599999999999</v>
+      </c>
+      <c r="X160">
+        <f>G160/U$2</f>
+        <v>184.67760789264506</v>
+      </c>
+      <c r="Y160">
+        <f>J160/V$2</f>
+        <v>181.51548350413958</v>
+      </c>
+      <c r="Z160">
+        <f>M160/W$2</f>
+        <v>226.99138858988158</v>
+      </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>160496</v>
       </c>
@@ -30336,7 +34287,7 @@
         <v>29696</v>
       </c>
       <c r="D161">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.21689900000000001</v>
       </c>
       <c r="E161">
@@ -30366,8 +34317,23 @@
       <c r="M161">
         <v>441.97500000000002</v>
       </c>
+      <c r="T161">
+        <v>0.21689900000000001</v>
+      </c>
+      <c r="X161">
+        <f>G161/U$2</f>
+        <v>238.85404351107817</v>
+      </c>
+      <c r="Y161">
+        <f>J161/V$2</f>
+        <v>220.89198297022563</v>
+      </c>
+      <c r="Z161">
+        <f>M161/W$2</f>
+        <v>297.34593649085042</v>
+      </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>320768</v>
       </c>
@@ -30378,7 +34344,7 @@
         <v>29696</v>
       </c>
       <c r="D162">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.37717099999999998</v>
       </c>
       <c r="E162">
@@ -30408,8 +34374,23 @@
       <c r="M162">
         <v>350.04</v>
       </c>
+      <c r="T162">
+        <v>0.37717099999999998</v>
+      </c>
+      <c r="X162">
+        <f>G162/U$2</f>
+        <v>230.92532847056623</v>
+      </c>
+      <c r="Y162">
+        <f>J162/V$2</f>
+        <v>216.03683312762624</v>
+      </c>
+      <c r="Z162">
+        <f>M162/W$2</f>
+        <v>235.49515608180843</v>
+      </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>684848</v>
       </c>
@@ -30420,7 +34401,7 @@
         <v>29696</v>
       </c>
       <c r="D163">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.74125099999999999</v>
       </c>
       <c r="E163">
@@ -30450,8 +34431,23 @@
       <c r="M163">
         <v>305.76600000000002</v>
       </c>
+      <c r="T163">
+        <v>0.74125099999999999</v>
+      </c>
+      <c r="X163">
+        <f>G163/U$2</f>
+        <v>212.28115878136919</v>
+      </c>
+      <c r="Y163">
+        <f>J163/V$2</f>
+        <v>205.42754718551086</v>
+      </c>
+      <c r="Z163">
+        <f>M163/W$2</f>
+        <v>205.70909580193759</v>
+      </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>1312512</v>
       </c>
@@ -30462,7 +34458,7 @@
         <v>29696</v>
       </c>
       <c r="D164">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1.3689150000000001</v>
       </c>
       <c r="E164">
@@ -30492,8 +34488,23 @@
       <c r="M164">
         <v>315.702</v>
       </c>
+      <c r="T164">
+        <v>1.3689150000000001</v>
+      </c>
+      <c r="X164">
+        <f>G164/U$2</f>
+        <v>189.06411772171344</v>
+      </c>
+      <c r="Y164">
+        <f>J164/V$2</f>
+        <v>195.30363754871101</v>
+      </c>
+      <c r="Z164">
+        <f>M164/W$2</f>
+        <v>212.39370290635091</v>
+      </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>2625040</v>
       </c>
@@ -30504,7 +34515,7 @@
         <v>29696</v>
       </c>
       <c r="D165">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>2.6814429999999998</v>
       </c>
       <c r="E165">
@@ -30534,8 +34545,23 @@
       <c r="M165">
         <v>337.67099999999999</v>
       </c>
+      <c r="T165">
+        <v>2.6814429999999998</v>
+      </c>
+      <c r="X165">
+        <f>G165/U$2</f>
+        <v>184.74173229398366</v>
+      </c>
+      <c r="Y165">
+        <f>J165/V$2</f>
+        <v>181.58516967368845</v>
+      </c>
+      <c r="Z165">
+        <f>M165/W$2</f>
+        <v>227.17370828848223</v>
+      </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>160496</v>
       </c>
@@ -30546,7 +34572,7 @@
         <v>29696</v>
       </c>
       <c r="D166">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.22750000000000001</v>
       </c>
       <c r="E166">
@@ -30576,8 +34602,23 @@
       <c r="M166">
         <v>442.23500000000001</v>
       </c>
+      <c r="T166">
+        <v>0.22750000000000001</v>
+      </c>
+      <c r="X166">
+        <f>G166/U$2</f>
+        <v>222.40813845526989</v>
+      </c>
+      <c r="Y166">
+        <f>J166/V$2</f>
+        <v>215.69880320071005</v>
+      </c>
+      <c r="Z166">
+        <f>M166/W$2</f>
+        <v>297.52085575888054</v>
+      </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>320768</v>
       </c>
@@ -30588,7 +34629,7 @@
         <v>29696</v>
       </c>
       <c r="D167">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.38777200000000001</v>
       </c>
       <c r="E167">
@@ -30618,8 +34659,23 @@
       <c r="M167">
         <v>350.3</v>
       </c>
+      <c r="T167">
+        <v>0.38777200000000001</v>
+      </c>
+      <c r="X167">
+        <f>G167/U$2</f>
+        <v>222.05478628539367</v>
+      </c>
+      <c r="Y167">
+        <f>J167/V$2</f>
+        <v>209.47246529559416</v>
+      </c>
+      <c r="Z167">
+        <f>M167/W$2</f>
+        <v>235.67007534983856</v>
+      </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>684848</v>
       </c>
@@ -30630,7 +34686,7 @@
         <v>29696</v>
       </c>
       <c r="D168">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.75185199999999996</v>
       </c>
       <c r="E168">
@@ -30660,8 +34716,23 @@
       <c r="M168">
         <v>306.02600000000001</v>
       </c>
+      <c r="T168">
+        <v>0.75185199999999996</v>
+      </c>
+      <c r="X168">
+        <f>G168/U$2</f>
+        <v>209.29937411912442</v>
+      </c>
+      <c r="Y168">
+        <f>J168/V$2</f>
+        <v>203.0155736454534</v>
+      </c>
+      <c r="Z168">
+        <f>M168/W$2</f>
+        <v>205.88401506996772</v>
+      </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>1312512</v>
       </c>
@@ -30672,7 +34743,7 @@
         <v>29696</v>
       </c>
       <c r="D169">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1.379516</v>
       </c>
       <c r="E169">
@@ -30702,8 +34773,23 @@
       <c r="M169">
         <v>315.96199999999999</v>
       </c>
+      <c r="T169">
+        <v>1.379516</v>
+      </c>
+      <c r="X169">
+        <f>G169/U$2</f>
+        <v>189.18301504919543</v>
+      </c>
+      <c r="Y169">
+        <f>J169/V$2</f>
+        <v>195.44717025614</v>
+      </c>
+      <c r="Z169">
+        <f>M169/W$2</f>
+        <v>212.56862217438106</v>
+      </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>2625040</v>
       </c>
@@ -30714,7 +34800,7 @@
         <v>29696</v>
       </c>
       <c r="D170">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>2.6920440000000001</v>
       </c>
       <c r="E170">
@@ -30744,8 +34830,23 @@
       <c r="M170">
         <v>337.93099999999998</v>
       </c>
+      <c r="T170">
+        <v>2.6920440000000001</v>
+      </c>
+      <c r="X170">
+        <f>G170/U$2</f>
+        <v>184.85862573392382</v>
+      </c>
+      <c r="Y170">
+        <f>J170/V$2</f>
+        <v>181.72766228903467</v>
+      </c>
+      <c r="Z170">
+        <f>M170/W$2</f>
+        <v>227.34862755651238</v>
+      </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>160496</v>
       </c>
@@ -30756,7 +34857,7 @@
         <v>29696</v>
       </c>
       <c r="D171">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.25128200000000001</v>
       </c>
       <c r="E171">
@@ -30786,8 +34887,23 @@
       <c r="M171">
         <v>442.41899999999998</v>
       </c>
+      <c r="T171">
+        <v>0.25128200000000001</v>
+      </c>
+      <c r="X171">
+        <f>G171/U$2</f>
+        <v>221.13366597866528</v>
+      </c>
+      <c r="Y171">
+        <f>J171/V$2</f>
+        <v>212.19438627633167</v>
+      </c>
+      <c r="Z171">
+        <f>M171/W$2</f>
+        <v>297.64464477933262</v>
+      </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>320768</v>
       </c>
@@ -30798,7 +34914,7 @@
         <v>29696</v>
       </c>
       <c r="D172">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.41155399999999998</v>
       </c>
       <c r="E172">
@@ -30828,8 +34944,23 @@
       <c r="M172">
         <v>350.48399999999998</v>
       </c>
+      <c r="T172">
+        <v>0.41155399999999998</v>
+      </c>
+      <c r="X172">
+        <f>G172/U$2</f>
+        <v>214.6250392427977</v>
+      </c>
+      <c r="Y172">
+        <f>J172/V$2</f>
+        <v>209.14310280270146</v>
+      </c>
+      <c r="Z172">
+        <f>M172/W$2</f>
+        <v>235.79386437029063</v>
+      </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>684848</v>
       </c>
@@ -30840,7 +34971,7 @@
         <v>29696</v>
       </c>
       <c r="D173">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.77563400000000005</v>
       </c>
       <c r="E173">
@@ -30870,8 +35001,23 @@
       <c r="M173">
         <v>306.209</v>
       </c>
+      <c r="T173">
+        <v>0.77563400000000005</v>
+      </c>
+      <c r="X173">
+        <f>G173/U$2</f>
+        <v>202.16753835774736</v>
+      </c>
+      <c r="Y173">
+        <f>J173/V$2</f>
+        <v>203.08005935458823</v>
+      </c>
+      <c r="Z173">
+        <f>M173/W$2</f>
+        <v>206.00713132400432</v>
+      </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>1312512</v>
       </c>
@@ -30882,7 +35028,7 @@
         <v>29696</v>
       </c>
       <c r="D174">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1.4032979999999999</v>
       </c>
       <c r="E174">
@@ -30912,8 +35058,23 @@
       <c r="M174">
         <v>316.14600000000002</v>
       </c>
+      <c r="T174">
+        <v>1.4032979999999999</v>
+      </c>
+      <c r="X174">
+        <f>G174/U$2</f>
+        <v>188.58184878664608</v>
+      </c>
+      <c r="Y174">
+        <f>J174/V$2</f>
+        <v>194.90874925460068</v>
+      </c>
+      <c r="Z174">
+        <f>M174/W$2</f>
+        <v>212.69241119483317</v>
+      </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>2625040</v>
       </c>
@@ -30924,7 +35085,7 @@
         <v>29696</v>
       </c>
       <c r="D175">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>2.7158259999999999</v>
       </c>
       <c r="E175">
@@ -30954,8 +35115,23 @@
       <c r="M175">
         <v>338.11399999999998</v>
       </c>
+      <c r="T175">
+        <v>2.7158259999999999</v>
+      </c>
+      <c r="X175">
+        <f>G175/U$2</f>
+        <v>184.93076568542972</v>
+      </c>
+      <c r="Y175">
+        <f>J175/V$2</f>
+        <v>181.79318809025224</v>
+      </c>
+      <c r="Z175">
+        <f>M175/W$2</f>
+        <v>227.47174381054896</v>
+      </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>160496</v>
       </c>
@@ -30966,7 +35142,7 @@
         <v>29696</v>
       </c>
       <c r="D176">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.29719899999999999</v>
       </c>
       <c r="E176">
@@ -30996,8 +35172,23 @@
       <c r="M176">
         <v>443.18400000000003</v>
       </c>
+      <c r="T176">
+        <v>0.29719899999999999</v>
+      </c>
+      <c r="X176">
+        <f>G176/U$2</f>
+        <v>221.44026077256544</v>
+      </c>
+      <c r="Y176">
+        <f>J176/V$2</f>
+        <v>212.54143033463231</v>
+      </c>
+      <c r="Z176">
+        <f>M176/W$2</f>
+        <v>298.15931108719053</v>
+      </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>320768</v>
       </c>
@@ -31008,7 +35199,7 @@
         <v>29696</v>
       </c>
       <c r="D177">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.45747100000000002</v>
       </c>
       <c r="E177">
@@ -31038,8 +35229,23 @@
       <c r="M177">
         <v>351.25</v>
       </c>
+      <c r="T177">
+        <v>0.45747100000000002</v>
+      </c>
+      <c r="X177">
+        <f>G177/U$2</f>
+        <v>214.9323019992118</v>
+      </c>
+      <c r="Y177">
+        <f>J177/V$2</f>
+        <v>209.4901468610021</v>
+      </c>
+      <c r="Z177">
+        <f>M177/W$2</f>
+        <v>236.30920344456405</v>
+      </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>684848</v>
       </c>
@@ -31050,7 +35256,7 @@
         <v>29696</v>
       </c>
       <c r="D178">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.82155100000000003</v>
       </c>
       <c r="E178">
@@ -31080,8 +35286,23 @@
       <c r="M178">
         <v>306.97500000000002</v>
       </c>
+      <c r="T178">
+        <v>0.82155100000000003</v>
+      </c>
+      <c r="X178">
+        <f>G178/U$2</f>
+        <v>202.47413315164752</v>
+      </c>
+      <c r="Y178">
+        <f>J178/V$2</f>
+        <v>203.42398313664035</v>
+      </c>
+      <c r="Z178">
+        <f>M178/W$2</f>
+        <v>206.52247039827773</v>
+      </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>1312512</v>
       </c>
@@ -31092,7 +35313,7 @@
         <v>29696</v>
       </c>
       <c r="D179">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1.4492149999999999</v>
       </c>
       <c r="E179">
@@ -31122,8 +35343,23 @@
       <c r="M179">
         <v>316.91199999999998</v>
       </c>
+      <c r="T179">
+        <v>1.4492149999999999</v>
+      </c>
+      <c r="X179">
+        <f>G179/U$2</f>
+        <v>188.88911154306021</v>
+      </c>
+      <c r="Y179">
+        <f>J179/V$2</f>
+        <v>195.2616871680373</v>
+      </c>
+      <c r="Z179">
+        <f>M179/W$2</f>
+        <v>213.20775026910655</v>
+      </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>2625040</v>
       </c>
@@ -31134,7 +35370,7 @@
         <v>29696</v>
       </c>
       <c r="D180">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>2.7617430000000001</v>
       </c>
       <c r="E180">
@@ -31164,8 +35400,23 @@
       <c r="M180">
         <v>338.88</v>
       </c>
+      <c r="T180">
+        <v>2.7617430000000001</v>
+      </c>
+      <c r="X180">
+        <f>G180/U$2</f>
+        <v>185.23736047932991</v>
+      </c>
+      <c r="Y180">
+        <f>J180/V$2</f>
+        <v>182.13364489869505</v>
+      </c>
+      <c r="Z180">
+        <f>M180/W$2</f>
+        <v>227.9870828848224</v>
+      </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>160496</v>
       </c>
@@ -31176,7 +35427,7 @@
         <v>52736</v>
       </c>
       <c r="D181">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.234456</v>
       </c>
       <c r="E181">
@@ -31206,8 +35457,23 @@
       <c r="M181">
         <v>436.95600000000002</v>
       </c>
+      <c r="T181">
+        <v>0.234456</v>
+      </c>
+      <c r="X181">
+        <f>G181/U$2</f>
+        <v>237.15341095057747</v>
+      </c>
+      <c r="Y181">
+        <f>J181/V$2</f>
+        <v>221.37007863096147</v>
+      </c>
+      <c r="Z181">
+        <f>M181/W$2</f>
+        <v>293.96932185145317</v>
+      </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>320768</v>
       </c>
@@ -31218,7 +35484,7 @@
         <v>52736</v>
       </c>
       <c r="D182">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.39472800000000002</v>
       </c>
       <c r="E182">
@@ -31248,8 +35514,23 @@
       <c r="M182">
         <v>344.25400000000002</v>
       </c>
+      <c r="T182">
+        <v>0.39472800000000002</v>
+      </c>
+      <c r="X182">
+        <f>G182/U$2</f>
+        <v>227.42587286001509</v>
+      </c>
+      <c r="Y182">
+        <f>J182/V$2</f>
+        <v>212.6645078977659</v>
+      </c>
+      <c r="Z182">
+        <f>M182/W$2</f>
+        <v>231.6025296017223</v>
+      </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>684848</v>
       </c>
@@ -31260,7 +35541,7 @@
         <v>52736</v>
       </c>
       <c r="D183">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.75880800000000004</v>
       </c>
       <c r="E183">
@@ -31290,8 +35571,23 @@
       <c r="M183">
         <v>298.58300000000003</v>
       </c>
+      <c r="T183">
+        <v>0.75880800000000004</v>
+      </c>
+      <c r="X183">
+        <f>G183/U$2</f>
+        <v>207.97146464140431</v>
+      </c>
+      <c r="Y183">
+        <f>J183/V$2</f>
+        <v>203.47148067508911</v>
+      </c>
+      <c r="Z183">
+        <f>M183/W$2</f>
+        <v>200.87661463939722</v>
+      </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>1312512</v>
       </c>
@@ -31302,7 +35598,7 @@
         <v>52736</v>
       </c>
       <c r="D184">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1.3864719999999999</v>
       </c>
       <c r="E184">
@@ -31332,8 +35628,23 @@
       <c r="M184">
         <v>303.86700000000002</v>
       </c>
+      <c r="T184">
+        <v>1.3864719999999999</v>
+      </c>
+      <c r="X184">
+        <f>G184/U$2</f>
+        <v>181.95232083575468</v>
+      </c>
+      <c r="Y184">
+        <f>J184/V$2</f>
+        <v>188.22719771457099</v>
+      </c>
+      <c r="Z184">
+        <f>M184/W$2</f>
+        <v>204.43151237890206</v>
+      </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>2625040</v>
       </c>
@@ -31344,7 +35655,7 @@
         <v>52736</v>
       </c>
       <c r="D185">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>2.6989999999999998</v>
       </c>
       <c r="E185">
@@ -31374,8 +35685,23 @@
       <c r="M185">
         <v>315.57799999999997</v>
       </c>
+      <c r="T185">
+        <v>2.6989999999999998</v>
+      </c>
+      <c r="X185">
+        <f>G185/U$2</f>
+        <v>171.47866861711719</v>
+      </c>
+      <c r="Y185">
+        <f>J185/V$2</f>
+        <v>168.395068576738</v>
+      </c>
+      <c r="Z185">
+        <f>M185/W$2</f>
+        <v>212.31027987082885</v>
+      </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>160496</v>
       </c>
@@ -31386,7 +35712,7 @@
         <v>52736</v>
       </c>
       <c r="D186">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.23993900000000001</v>
       </c>
       <c r="E186">
@@ -31416,8 +35742,23 @@
       <c r="M186">
         <v>437.22699999999998</v>
       </c>
+      <c r="T186">
+        <v>0.23993900000000001</v>
+      </c>
+      <c r="X186">
+        <f>G186/U$2</f>
+        <v>235.89563753682143</v>
+      </c>
+      <c r="Y186">
+        <f>J186/V$2</f>
+        <v>217.94886907320864</v>
+      </c>
+      <c r="Z186">
+        <f>M186/W$2</f>
+        <v>294.1516415500538</v>
+      </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>320768</v>
       </c>
@@ -31428,7 +35769,7 @@
         <v>52736</v>
       </c>
       <c r="D187">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.40021099999999998</v>
       </c>
       <c r="E187">
@@ -31458,8 +35799,23 @@
       <c r="M187">
         <v>344.524</v>
       </c>
+      <c r="T187">
+        <v>0.40021099999999998</v>
+      </c>
+      <c r="X187">
+        <f>G187/U$2</f>
+        <v>227.5066963242023</v>
+      </c>
+      <c r="Y187">
+        <f>J187/V$2</f>
+        <v>212.63573201680791</v>
+      </c>
+      <c r="Z187">
+        <f>M187/W$2</f>
+        <v>231.78417653390744</v>
+      </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>684848</v>
       </c>
@@ -31470,7 +35826,7 @@
         <v>52736</v>
       </c>
       <c r="D188">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.76429100000000005</v>
       </c>
       <c r="E188">
@@ -31500,8 +35856,23 @@
       <c r="M188">
         <v>298.85399999999998</v>
       </c>
+      <c r="T188">
+        <v>0.76429100000000005</v>
+      </c>
+      <c r="X188">
+        <f>G188/U$2</f>
+        <v>208.02490164251984</v>
+      </c>
+      <c r="Y188">
+        <f>J188/V$2</f>
+        <v>201.19437240843723</v>
+      </c>
+      <c r="Z188">
+        <f>M188/W$2</f>
+        <v>201.05893433799784</v>
+      </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>1312512</v>
       </c>
@@ -31512,7 +35883,7 @@
         <v>52736</v>
       </c>
       <c r="D189">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1.3919550000000001</v>
       </c>
       <c r="E189">
@@ -31542,8 +35913,23 @@
       <c r="M189">
         <v>304.13799999999998</v>
       </c>
+      <c r="T189">
+        <v>1.3919550000000001</v>
+      </c>
+      <c r="X189">
+        <f>G189/U$2</f>
+        <v>182.01711319960722</v>
+      </c>
+      <c r="Y189">
+        <f>J189/V$2</f>
+        <v>188.29723058148082</v>
+      </c>
+      <c r="Z189">
+        <f>M189/W$2</f>
+        <v>204.61383207750268</v>
+      </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>2625040</v>
       </c>
@@ -31554,7 +35940,7 @@
         <v>52736</v>
       </c>
       <c r="D190">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>2.7044830000000002</v>
       </c>
       <c r="E190">
@@ -31584,8 +35970,23 @@
       <c r="M190">
         <v>315.84800000000001</v>
       </c>
+      <c r="T190">
+        <v>2.7044830000000002</v>
+      </c>
+      <c r="X190">
+        <f>G190/U$2</f>
+        <v>171.5427930184558</v>
+      </c>
+      <c r="Y190">
+        <f>J190/V$2</f>
+        <v>168.46475474628687</v>
+      </c>
+      <c r="Z190">
+        <f>M190/W$2</f>
+        <v>212.49192680301402</v>
+      </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>160496</v>
       </c>
@@ -31596,7 +35997,7 @@
         <v>52736</v>
       </c>
       <c r="D191">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.25053999999999998</v>
       </c>
       <c r="E191">
@@ -31626,8 +36027,23 @@
       <c r="M191">
         <v>437.48700000000002</v>
       </c>
+      <c r="T191">
+        <v>0.25053999999999998</v>
+      </c>
+      <c r="X191">
+        <f>G191/U$2</f>
+        <v>219.44973248101317</v>
+      </c>
+      <c r="Y191">
+        <f>J191/V$2</f>
+        <v>212.75534260633211</v>
+      </c>
+      <c r="Z191">
+        <f>M191/W$2</f>
+        <v>294.32656081808398</v>
+      </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>320768</v>
       </c>
@@ -31638,7 +36054,7 @@
         <v>52736</v>
       </c>
       <c r="D192">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.41081200000000001</v>
       </c>
       <c r="E192">
@@ -31668,8 +36084,23 @@
       <c r="M192">
         <v>344.78399999999999</v>
       </c>
+      <c r="T192">
+        <v>0.41081200000000001</v>
+      </c>
+      <c r="X192">
+        <f>G192/U$2</f>
+        <v>218.63548617651577</v>
+      </c>
+      <c r="Y192">
+        <f>J192/V$2</f>
+        <v>206.07136418477583</v>
+      </c>
+      <c r="Z192">
+        <f>M192/W$2</f>
+        <v>231.95909580193756</v>
+      </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>684848</v>
       </c>
@@ -31680,7 +36111,7 @@
         <v>52736</v>
       </c>
       <c r="D193">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.77489200000000003</v>
       </c>
       <c r="E193">
@@ -31710,8 +36141,23 @@
       <c r="M193">
         <v>299.11399999999998</v>
       </c>
+      <c r="T193">
+        <v>0.77489200000000003</v>
+      </c>
+      <c r="X193">
+        <f>G193/U$2</f>
+        <v>205.04311698027504</v>
+      </c>
+      <c r="Y193">
+        <f>J193/V$2</f>
+        <v>198.78239886837983</v>
+      </c>
+      <c r="Z193">
+        <f>M193/W$2</f>
+        <v>201.23385360602799</v>
+      </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>1312512</v>
       </c>
@@ -31722,7 +36168,7 @@
         <v>52736</v>
       </c>
       <c r="D194">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1.4025559999999999</v>
       </c>
       <c r="E194">
@@ -31752,8 +36198,23 @@
       <c r="M194">
         <v>304.39800000000002</v>
       </c>
+      <c r="T194">
+        <v>1.4025559999999999</v>
+      </c>
+      <c r="X194">
+        <f>G194/U$2</f>
+        <v>182.13601052708921</v>
+      </c>
+      <c r="Y194">
+        <f>J194/V$2</f>
+        <v>188.44076328890986</v>
+      </c>
+      <c r="Z194">
+        <f>M194/W$2</f>
+        <v>204.78875134553286</v>
+      </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>2625040</v>
       </c>
@@ -31764,7 +36225,7 @@
         <v>52736</v>
       </c>
       <c r="D195">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>2.7150840000000001</v>
       </c>
       <c r="E195">
@@ -31794,8 +36255,23 @@
       <c r="M195">
         <v>316.108</v>
       </c>
+      <c r="T195">
+        <v>2.7150840000000001</v>
+      </c>
+      <c r="X195">
+        <f>G195/U$2</f>
+        <v>171.65968645839595</v>
+      </c>
+      <c r="Y195">
+        <f>J195/V$2</f>
+        <v>168.60724736163309</v>
+      </c>
+      <c r="Z195">
+        <f>M195/W$2</f>
+        <v>212.66684607104415</v>
+      </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>160496</v>
       </c>
@@ -31806,7 +36282,7 @@
         <v>52736</v>
       </c>
       <c r="D196">
-        <f t="shared" ref="D196:D255" si="3">(A196+B196+C196)/1000000</f>
+        <f t="shared" ref="D196:D255" si="9">(A196+B196+C196)/1000000</f>
         <v>0.27432200000000001</v>
       </c>
       <c r="E196">
@@ -31836,8 +36312,23 @@
       <c r="M196">
         <v>437.67099999999999</v>
       </c>
+      <c r="T196">
+        <v>0.27432200000000001</v>
+      </c>
+      <c r="X196">
+        <f>G196/U$2</f>
+        <v>218.17526000440856</v>
+      </c>
+      <c r="Y196">
+        <f>J196/V$2</f>
+        <v>209.25127237931468</v>
+      </c>
+      <c r="Z196">
+        <f>M196/W$2</f>
+        <v>294.45034983853606</v>
+      </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>320768</v>
       </c>
@@ -31848,7 +36339,7 @@
         <v>52736</v>
       </c>
       <c r="D197">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.43459399999999998</v>
       </c>
       <c r="E197">
@@ -31878,8 +36369,23 @@
       <c r="M197">
         <v>344.96800000000002</v>
       </c>
+      <c r="T197">
+        <v>0.43459399999999998</v>
+      </c>
+      <c r="X197">
+        <f>G197/U$2</f>
+        <v>211.20640709643374</v>
+      </c>
+      <c r="Y197">
+        <f>J197/V$2</f>
+        <v>205.74200169188313</v>
+      </c>
+      <c r="Z197">
+        <f>M197/W$2</f>
+        <v>232.0828848223897</v>
+      </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>684848</v>
       </c>
@@ -31890,7 +36396,7 @@
         <v>52736</v>
       </c>
       <c r="D198">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.798674</v>
       </c>
       <c r="E198">
@@ -31920,8 +36426,23 @@
       <c r="M198">
         <v>299.29700000000003</v>
       </c>
+      <c r="T198">
+        <v>0.798674</v>
+      </c>
+      <c r="X198">
+        <f>G198/U$2</f>
+        <v>197.91128121889798</v>
+      </c>
+      <c r="Y198">
+        <f>J198/V$2</f>
+        <v>198.8468845775146</v>
+      </c>
+      <c r="Z198">
+        <f>M198/W$2</f>
+        <v>201.35696986006462</v>
+      </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>1312512</v>
       </c>
@@ -31932,7 +36453,7 @@
         <v>52736</v>
       </c>
       <c r="D199">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1.4263380000000001</v>
       </c>
       <c r="E199">
@@ -31962,8 +36483,23 @@
       <c r="M199">
         <v>304.58100000000002</v>
       </c>
+      <c r="T199">
+        <v>1.4263380000000001</v>
+      </c>
+      <c r="X199">
+        <f>G199/U$2</f>
+        <v>181.53484426453986</v>
+      </c>
+      <c r="Y199">
+        <f>J199/V$2</f>
+        <v>187.90234228737052</v>
+      </c>
+      <c r="Z199">
+        <f>M199/W$2</f>
+        <v>204.91186759956946</v>
+      </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>2625040</v>
       </c>
@@ -31974,7 +36510,7 @@
         <v>52736</v>
       </c>
       <c r="D200">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>2.7388659999999998</v>
       </c>
       <c r="E200">
@@ -32004,8 +36540,23 @@
       <c r="M200">
         <v>316.29199999999997</v>
       </c>
+      <c r="T200">
+        <v>2.7388659999999998</v>
+      </c>
+      <c r="X200">
+        <f>G200/U$2</f>
+        <v>171.73182640990188</v>
+      </c>
+      <c r="Y200">
+        <f>J200/V$2</f>
+        <v>168.67242646548974</v>
+      </c>
+      <c r="Z200">
+        <f>M200/W$2</f>
+        <v>212.79063509149623</v>
+      </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>160496</v>
       </c>
@@ -32016,7 +36567,7 @@
         <v>52736</v>
       </c>
       <c r="D201">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.320239</v>
       </c>
       <c r="E201">
@@ -32046,8 +36597,23 @@
       <c r="M201">
         <v>438.43599999999998</v>
       </c>
+      <c r="T201">
+        <v>0.320239</v>
+      </c>
+      <c r="X201">
+        <f>G201/U$2</f>
+        <v>218.48252276082266</v>
+      </c>
+      <c r="Y201">
+        <f>J201/V$2</f>
+        <v>209.59796974025437</v>
+      </c>
+      <c r="Z201">
+        <f>M201/W$2</f>
+        <v>294.96501614639396</v>
+      </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>320768</v>
       </c>
@@ -32058,7 +36624,7 @@
         <v>52736</v>
       </c>
       <c r="D202">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.48051100000000002</v>
       </c>
       <c r="E202">
@@ -32088,8 +36654,23 @@
       <c r="M202">
         <v>345.73399999999998</v>
       </c>
+      <c r="T202">
+        <v>0.48051100000000002</v>
+      </c>
+      <c r="X202">
+        <f>G202/U$2</f>
+        <v>211.5130018903339</v>
+      </c>
+      <c r="Y202">
+        <f>J202/V$2</f>
+        <v>206.08904575018377</v>
+      </c>
+      <c r="Z202">
+        <f>M202/W$2</f>
+        <v>232.59822389666309</v>
+      </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>684848</v>
       </c>
@@ -32100,7 +36681,7 @@
         <v>52736</v>
       </c>
       <c r="D203">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.84459099999999998</v>
       </c>
       <c r="E203">
@@ -32130,8 +36711,23 @@
       <c r="M203">
         <v>300.06299999999999</v>
       </c>
+      <c r="T203">
+        <v>0.84459099999999998</v>
+      </c>
+      <c r="X203">
+        <f>G203/U$2</f>
+        <v>198.21787601279814</v>
+      </c>
+      <c r="Y203">
+        <f>J203/V$2</f>
+        <v>199.19080835956677</v>
+      </c>
+      <c r="Z203">
+        <f>M203/W$2</f>
+        <v>201.87230893433801</v>
+      </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>1312512</v>
       </c>
@@ -32142,7 +36738,7 @@
         <v>52736</v>
       </c>
       <c r="D204">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1.4722550000000001</v>
       </c>
       <c r="E204">
@@ -32172,8 +36768,23 @@
       <c r="M204">
         <v>305.34699999999998</v>
       </c>
+      <c r="T204">
+        <v>1.4722550000000001</v>
+      </c>
+      <c r="X204">
+        <f>G204/U$2</f>
+        <v>181.84210702095399</v>
+      </c>
+      <c r="Y204">
+        <f>J204/V$2</f>
+        <v>188.25528020080714</v>
+      </c>
+      <c r="Z204">
+        <f>M204/W$2</f>
+        <v>205.42720667384285</v>
+      </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>2625040</v>
       </c>
@@ -32184,7 +36795,7 @@
         <v>52736</v>
       </c>
       <c r="D205">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>2.784783</v>
       </c>
       <c r="E205">
@@ -32214,8 +36825,23 @@
       <c r="M205">
         <v>317.05799999999999</v>
       </c>
+      <c r="T205">
+        <v>2.784783</v>
+      </c>
+      <c r="X205">
+        <f>G205/U$2</f>
+        <v>172.03842120380205</v>
+      </c>
+      <c r="Y205">
+        <f>J205/V$2</f>
+        <v>169.01322997129347</v>
+      </c>
+      <c r="Z205">
+        <f>M205/W$2</f>
+        <v>213.30597416576964</v>
+      </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>160496</v>
       </c>
@@ -32226,7 +36852,7 @@
         <v>96768</v>
       </c>
       <c r="D206">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.27848800000000001</v>
       </c>
       <c r="E206">
@@ -32256,8 +36882,23 @@
       <c r="M206">
         <v>447.03</v>
       </c>
+      <c r="T206">
+        <v>0.27848800000000001</v>
+      </c>
+      <c r="X206">
+        <f>G206/U$2</f>
+        <v>241.64612681936288</v>
+      </c>
+      <c r="Y206">
+        <f>J206/V$2</f>
+        <v>225.77868227267058</v>
+      </c>
+      <c r="Z206">
+        <f>M206/W$2</f>
+        <v>300.74677072120556</v>
+      </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>320768</v>
       </c>
@@ -32268,7 +36909,7 @@
         <v>96768</v>
       </c>
       <c r="D207">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.43875999999999998</v>
       </c>
       <c r="E207">
@@ -32298,8 +36939,23 @@
       <c r="M207">
         <v>354.137</v>
       </c>
+      <c r="T207">
+        <v>0.43875999999999998</v>
+      </c>
+      <c r="X207">
+        <f>G207/U$2</f>
+        <v>231.6981610991991</v>
+      </c>
+      <c r="Y207">
+        <f>J207/V$2</f>
+        <v>216.84949174166888</v>
+      </c>
+      <c r="Z207">
+        <f>M207/W$2</f>
+        <v>238.2514800861141</v>
+      </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>684848</v>
       </c>
@@ -32310,7 +36966,7 @@
         <v>96768</v>
       </c>
       <c r="D208">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.80284</v>
       </c>
       <c r="E208">
@@ -32340,8 +36996,23 @@
       <c r="M208">
         <v>308.12099999999998</v>
       </c>
+      <c r="T208">
+        <v>0.80284</v>
+      </c>
+      <c r="X208">
+        <f>G208/U$2</f>
+        <v>211.8429753722221</v>
+      </c>
+      <c r="Y208">
+        <f>J208/V$2</f>
+        <v>207.25013521197079</v>
+      </c>
+      <c r="Z208">
+        <f>M208/W$2</f>
+        <v>207.29346071044134</v>
+      </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>1312512</v>
       </c>
@@ -32352,7 +37023,7 @@
         <v>96768</v>
       </c>
       <c r="D209">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1.430504</v>
       </c>
       <c r="E209">
@@ -32382,8 +37053,23 @@
       <c r="M209">
         <v>312.255</v>
       </c>
+      <c r="T209">
+        <v>1.430504</v>
+      </c>
+      <c r="X209">
+        <f>G209/U$2</f>
+        <v>184.48657061365714</v>
+      </c>
+      <c r="Y209">
+        <f>J209/V$2</f>
+        <v>190.65165235962223</v>
+      </c>
+      <c r="Z209">
+        <f>M209/W$2</f>
+        <v>210.07467707212055</v>
+      </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>2625040</v>
       </c>
@@ -32394,7 +37080,7 @@
         <v>96768</v>
       </c>
       <c r="D210">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>2.7430319999999999</v>
       </c>
       <c r="E210">
@@ -32424,8 +37110,23 @@
       <c r="M210">
         <v>321.42899999999997</v>
       </c>
+      <c r="T210">
+        <v>2.7430319999999999</v>
+      </c>
+      <c r="X210">
+        <f>G210/U$2</f>
+        <v>171.06519982098604</v>
+      </c>
+      <c r="Y210">
+        <f>J210/V$2</f>
+        <v>167.83307215465476</v>
+      </c>
+      <c r="Z210">
+        <f>M210/W$2</f>
+        <v>216.24663616792247</v>
+      </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>160496</v>
       </c>
@@ -32436,7 +37137,7 @@
         <v>96768</v>
       </c>
       <c r="D211">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.28397099999999997</v>
       </c>
       <c r="E211">
@@ -32466,8 +37167,23 @@
       <c r="M211">
         <v>447.30099999999999</v>
       </c>
+      <c r="T211">
+        <v>0.28397099999999997</v>
+      </c>
+      <c r="X211">
+        <f>G211/U$2</f>
+        <v>240.38835340560686</v>
+      </c>
+      <c r="Y211">
+        <f>J211/V$2</f>
+        <v>222.35747271491772</v>
+      </c>
+      <c r="Z211">
+        <f>M211/W$2</f>
+        <v>300.92909041980624</v>
+      </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>320768</v>
       </c>
@@ -32478,7 +37194,7 @@
         <v>96768</v>
       </c>
       <c r="D212">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.444243</v>
       </c>
       <c r="E212">
@@ -32508,8 +37224,23 @@
       <c r="M212">
         <v>354.40800000000002</v>
       </c>
+      <c r="T212">
+        <v>0.444243</v>
+      </c>
+      <c r="X212">
+        <f>G212/U$2</f>
+        <v>231.77831660087233</v>
+      </c>
+      <c r="Y212">
+        <f>J212/V$2</f>
+        <v>216.82106255807182</v>
+      </c>
+      <c r="Z212">
+        <f>M212/W$2</f>
+        <v>238.43379978471478</v>
+      </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>684848</v>
       </c>
@@ -32520,7 +37251,7 @@
         <v>96768</v>
       </c>
       <c r="D213">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.80832300000000001</v>
       </c>
       <c r="E213">
@@ -32550,8 +37281,23 @@
       <c r="M213">
         <v>308.392</v>
       </c>
+      <c r="T213">
+        <v>0.80832300000000001</v>
+      </c>
+      <c r="X213">
+        <f>G213/U$2</f>
+        <v>211.89574441082365</v>
+      </c>
+      <c r="Y213">
+        <f>J213/V$2</f>
+        <v>204.97302694531891</v>
+      </c>
+      <c r="Z213">
+        <f>M213/W$2</f>
+        <v>207.47578040904199</v>
+      </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>1312512</v>
       </c>
@@ -32562,7 +37308,7 @@
         <v>96768</v>
       </c>
       <c r="D214">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1.4359869999999999</v>
       </c>
       <c r="E214">
@@ -32592,8 +37338,23 @@
       <c r="M214">
         <v>312.52600000000001</v>
       </c>
+      <c r="T214">
+        <v>1.4359869999999999</v>
+      </c>
+      <c r="X214">
+        <f>G214/U$2</f>
+        <v>184.55136297750971</v>
+      </c>
+      <c r="Y214">
+        <f>J214/V$2</f>
+        <v>190.72168522653209</v>
+      </c>
+      <c r="Z214">
+        <f>M214/W$2</f>
+        <v>210.25699677072123</v>
+      </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>2625040</v>
       </c>
@@ -32604,7 +37365,7 @@
         <v>96768</v>
       </c>
       <c r="D215">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>2.7485149999999998</v>
       </c>
       <c r="E215">
@@ -32634,8 +37395,23 @@
       <c r="M215">
         <v>321.7</v>
       </c>
+      <c r="T215">
+        <v>2.7485149999999998</v>
+      </c>
+      <c r="X215">
+        <f>G215/U$2</f>
+        <v>171.12932422232464</v>
+      </c>
+      <c r="Y215">
+        <f>J215/V$2</f>
+        <v>167.90275832420366</v>
+      </c>
+      <c r="Z215">
+        <f>M215/W$2</f>
+        <v>216.42895586652315</v>
+      </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>160496</v>
       </c>
@@ -32646,7 +37422,7 @@
         <v>96768</v>
       </c>
       <c r="D216">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.294572</v>
       </c>
       <c r="E216">
@@ -32676,8 +37452,23 @@
       <c r="M216">
         <v>447.56</v>
       </c>
+      <c r="T216">
+        <v>0.294572</v>
+      </c>
+      <c r="X216">
+        <f>G216/U$2</f>
+        <v>223.94244834979861</v>
+      </c>
+      <c r="Y216">
+        <f>J216/V$2</f>
+        <v>217.16429294540211</v>
+      </c>
+      <c r="Z216">
+        <f>M216/W$2</f>
+        <v>301.10333692142092</v>
+      </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>320768</v>
       </c>
@@ -32688,7 +37479,7 @@
         <v>96768</v>
       </c>
       <c r="D217">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.45484400000000003</v>
       </c>
       <c r="E217">
@@ -32718,8 +37509,23 @@
       <c r="M217">
         <v>354.66800000000001</v>
       </c>
+      <c r="T217">
+        <v>0.45484400000000003</v>
+      </c>
+      <c r="X217">
+        <f>G217/U$2</f>
+        <v>222.90777441569981</v>
+      </c>
+      <c r="Y217">
+        <f>J217/V$2</f>
+        <v>210.25634802867881</v>
+      </c>
+      <c r="Z217">
+        <f>M217/W$2</f>
+        <v>238.6087190527449</v>
+      </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>684848</v>
       </c>
@@ -32730,7 +37536,7 @@
         <v>96768</v>
       </c>
       <c r="D218">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.81892399999999999</v>
       </c>
       <c r="E218">
@@ -32760,8 +37566,23 @@
       <c r="M218">
         <v>308.65199999999999</v>
       </c>
+      <c r="T218">
+        <v>0.81892399999999999</v>
+      </c>
+      <c r="X218">
+        <f>G218/U$2</f>
+        <v>208.91462771109283</v>
+      </c>
+      <c r="Y218">
+        <f>J218/V$2</f>
+        <v>202.56140010262243</v>
+      </c>
+      <c r="Z218">
+        <f>M218/W$2</f>
+        <v>207.65069967707211</v>
+      </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>1312512</v>
       </c>
@@ -32772,7 +37593,7 @@
         <v>96768</v>
       </c>
       <c r="D219">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1.446588</v>
       </c>
       <c r="E219">
@@ -32802,8 +37623,23 @@
       <c r="M219">
         <v>312.78500000000003</v>
       </c>
+      <c r="T219">
+        <v>1.446588</v>
+      </c>
+      <c r="X219">
+        <f>G219/U$2</f>
+        <v>184.67026030499167</v>
+      </c>
+      <c r="Y219">
+        <f>J219/V$2</f>
+        <v>190.86521793396108</v>
+      </c>
+      <c r="Z219">
+        <f>M219/W$2</f>
+        <v>210.43124327233588</v>
+      </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>2625040</v>
       </c>
@@ -32814,7 +37650,7 @@
         <v>96768</v>
       </c>
       <c r="D220">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>2.7591160000000001</v>
       </c>
       <c r="E220">
@@ -32844,8 +37680,23 @@
       <c r="M220">
         <v>321.95999999999998</v>
       </c>
+      <c r="T220">
+        <v>2.7591160000000001</v>
+      </c>
+      <c r="X220">
+        <f>G220/U$2</f>
+        <v>171.2462176622648</v>
+      </c>
+      <c r="Y220">
+        <f>J220/V$2</f>
+        <v>168.04525093954985</v>
+      </c>
+      <c r="Z220">
+        <f>M220/W$2</f>
+        <v>216.60387513455328</v>
+      </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>160496</v>
       </c>
@@ -32856,7 +37707,7 @@
         <v>96768</v>
       </c>
       <c r="D221">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.31835400000000003</v>
       </c>
       <c r="E221">
@@ -32886,8 +37737,23 @@
       <c r="M221">
         <v>447.74400000000003</v>
       </c>
+      <c r="T221">
+        <v>0.31835400000000003</v>
+      </c>
+      <c r="X221">
+        <f>G221/U$2</f>
+        <v>222.667975873194</v>
+      </c>
+      <c r="Y221">
+        <f>J221/V$2</f>
+        <v>213.65987602102373</v>
+      </c>
+      <c r="Z221">
+        <f>M221/W$2</f>
+        <v>301.227125941873</v>
+      </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>320768</v>
       </c>
@@ -32898,7 +37764,7 @@
         <v>96768</v>
       </c>
       <c r="D222">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.478626</v>
       </c>
       <c r="E222">
@@ -32928,8 +37794,23 @@
       <c r="M222">
         <v>354.85199999999998</v>
       </c>
+      <c r="T222">
+        <v>0.478626</v>
+      </c>
+      <c r="X222">
+        <f>G222/U$2</f>
+        <v>215.47802737310383</v>
+      </c>
+      <c r="Y222">
+        <f>J222/V$2</f>
+        <v>209.92733223314707</v>
+      </c>
+      <c r="Z222">
+        <f>M222/W$2</f>
+        <v>238.73250807319698</v>
+      </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>684848</v>
       </c>
@@ -32940,7 +37821,7 @@
         <v>96768</v>
       </c>
       <c r="D223">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.84270599999999996</v>
       </c>
       <c r="E223">
@@ -32970,8 +37851,23 @@
       <c r="M223">
         <v>308.83600000000001</v>
       </c>
+      <c r="T223">
+        <v>0.84270599999999996</v>
+      </c>
+      <c r="X223">
+        <f>G223/U$2</f>
+        <v>201.78212398720186</v>
+      </c>
+      <c r="Y223">
+        <f>J223/V$2</f>
+        <v>202.6258858117572</v>
+      </c>
+      <c r="Z223">
+        <f>M223/W$2</f>
+        <v>207.77448869752425</v>
+      </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>1312512</v>
       </c>
@@ -32982,7 +37878,7 @@
         <v>96768</v>
       </c>
       <c r="D224">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1.47037</v>
       </c>
       <c r="E224">
@@ -33012,8 +37908,23 @@
       <c r="M224">
         <v>312.96899999999999</v>
       </c>
+      <c r="T224">
+        <v>1.47037</v>
+      </c>
+      <c r="X224">
+        <f>G224/U$2</f>
+        <v>184.06909404244232</v>
+      </c>
+      <c r="Y224">
+        <f>J224/V$2</f>
+        <v>190.3264502350608</v>
+      </c>
+      <c r="Z224">
+        <f>M224/W$2</f>
+        <v>210.55503229278796</v>
+      </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>2625040</v>
       </c>
@@ -33024,7 +37935,7 @@
         <v>96768</v>
       </c>
       <c r="D225">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>2.7828979999999999</v>
       </c>
       <c r="E225">
@@ -33054,8 +37965,23 @@
       <c r="M225">
         <v>322.14299999999997</v>
       </c>
+      <c r="T225">
+        <v>2.7828979999999999</v>
+      </c>
+      <c r="X225">
+        <f>G225/U$2</f>
+        <v>171.3183576137707</v>
+      </c>
+      <c r="Y225">
+        <f>J225/V$2</f>
+        <v>168.11077674076745</v>
+      </c>
+      <c r="Z225">
+        <f>M225/W$2</f>
+        <v>216.72699138858988</v>
+      </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>160496</v>
       </c>
@@ -33066,7 +37992,7 @@
         <v>96768</v>
       </c>
       <c r="D226">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.36427100000000001</v>
       </c>
       <c r="E226">
@@ -33096,8 +38022,23 @@
       <c r="M226">
         <v>448.51</v>
       </c>
+      <c r="T226">
+        <v>0.36427100000000001</v>
+      </c>
+      <c r="X226">
+        <f>G226/U$2</f>
+        <v>222.9752386296081</v>
+      </c>
+      <c r="Y226">
+        <f>J226/V$2</f>
+        <v>214.00692007932435</v>
+      </c>
+      <c r="Z226">
+        <f>M226/W$2</f>
+        <v>301.74246501614641</v>
+      </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>320768</v>
       </c>
@@ -33108,7 +38049,7 @@
         <v>96768</v>
       </c>
       <c r="D227">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.52454299999999998</v>
       </c>
       <c r="E227">
@@ -33138,8 +38079,23 @@
       <c r="M227">
         <v>355.61700000000002</v>
       </c>
+      <c r="T227">
+        <v>0.52454299999999998</v>
+      </c>
+      <c r="X227">
+        <f>G227/U$2</f>
+        <v>215.78529012951793</v>
+      </c>
+      <c r="Y227">
+        <f>J227/V$2</f>
+        <v>210.27402959408676</v>
+      </c>
+      <c r="Z227">
+        <f>M227/W$2</f>
+        <v>239.24717438105492</v>
+      </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>684848</v>
       </c>
@@ -33150,7 +38106,7 @@
         <v>96768</v>
       </c>
       <c r="D228">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.88862300000000005</v>
       </c>
       <c r="E228">
@@ -33180,8 +38136,23 @@
       <c r="M228">
         <v>309.60199999999998</v>
       </c>
+      <c r="T228">
+        <v>0.88862300000000005</v>
+      </c>
+      <c r="X228">
+        <f>G228/U$2</f>
+        <v>202.08938674361593</v>
+      </c>
+      <c r="Y228">
+        <f>J228/V$2</f>
+        <v>202.96946289644845</v>
+      </c>
+      <c r="Z228">
+        <f>M228/W$2</f>
+        <v>208.28982777179763</v>
+      </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>1312512</v>
       </c>
@@ -33192,7 +38163,7 @@
         <v>96768</v>
       </c>
       <c r="D229">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1.5162869999999999</v>
       </c>
       <c r="E229">
@@ -33222,8 +38193,23 @@
       <c r="M229">
         <v>313.73500000000001</v>
       </c>
+      <c r="T229">
+        <v>1.5162869999999999</v>
+      </c>
+      <c r="X229">
+        <f>G229/U$2</f>
+        <v>184.37635679885645</v>
+      </c>
+      <c r="Y229">
+        <f>J229/V$2</f>
+        <v>190.67973484585838</v>
+      </c>
+      <c r="Z229">
+        <f>M229/W$2</f>
+        <v>211.07037136706137</v>
+      </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>2625040</v>
       </c>
@@ -33234,7 +38220,7 @@
         <v>96768</v>
       </c>
       <c r="D230">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>2.8288150000000001</v>
       </c>
       <c r="E230">
@@ -33264,8 +38250,23 @@
       <c r="M230">
         <v>322.90899999999999</v>
       </c>
+      <c r="T230">
+        <v>2.8288150000000001</v>
+      </c>
+      <c r="X230">
+        <f>G230/U$2</f>
+        <v>171.62562037018481</v>
+      </c>
+      <c r="Y230">
+        <f>J230/V$2</f>
+        <v>168.45123354921023</v>
+      </c>
+      <c r="Z230">
+        <f>M230/W$2</f>
+        <v>217.24233046286329</v>
+      </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>160496</v>
       </c>
@@ -33276,7 +38277,7 @@
         <v>181248</v>
       </c>
       <c r="D231">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.36296800000000001</v>
       </c>
       <c r="E231">
@@ -33306,8 +38307,23 @@
       <c r="M231">
         <v>448.93200000000002</v>
       </c>
+      <c r="T231">
+        <v>0.36296800000000001</v>
+      </c>
+      <c r="X231">
+        <f>G231/U$2</f>
+        <v>242.16312980515534</v>
+      </c>
+      <c r="Y231">
+        <f>J231/V$2</f>
+        <v>226.26925903840021</v>
+      </c>
+      <c r="Z231">
+        <f>M231/W$2</f>
+        <v>302.02637244348762</v>
+      </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>320768</v>
       </c>
@@ -33318,7 +38334,7 @@
         <v>181248</v>
       </c>
       <c r="D232">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.52324000000000004</v>
       </c>
       <c r="E232">
@@ -33348,8 +38364,23 @@
       <c r="M232">
         <v>355.94400000000002</v>
       </c>
+      <c r="T232">
+        <v>0.52324000000000004</v>
+      </c>
+      <c r="X232">
+        <f>G232/U$2</f>
+        <v>232.10495027019084</v>
+      </c>
+      <c r="Y232">
+        <f>J232/V$2</f>
+        <v>217.22808525981503</v>
+      </c>
+      <c r="Z232">
+        <f>M232/W$2</f>
+        <v>239.4671689989236</v>
+      </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>684848</v>
       </c>
@@ -33360,7 +38391,7 @@
         <v>181248</v>
       </c>
       <c r="D233">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.88732</v>
       </c>
       <c r="E233">
@@ -33390,8 +38421,23 @@
       <c r="M233">
         <v>309.75599999999997</v>
       </c>
+      <c r="T233">
+        <v>0.88732</v>
+      </c>
+      <c r="X233">
+        <f>G233/U$2</f>
+        <v>212.04937578903073</v>
+      </c>
+      <c r="Y233">
+        <f>J233/V$2</f>
+        <v>207.42556407660624</v>
+      </c>
+      <c r="Z233">
+        <f>M233/W$2</f>
+        <v>208.3934337997847</v>
+      </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>1312512</v>
       </c>
@@ -33402,7 +38448,7 @@
         <v>181248</v>
       </c>
       <c r="D234">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1.5149840000000001</v>
       </c>
       <c r="E234">
@@ -33432,8 +38478,23 @@
       <c r="M234">
         <v>313.31400000000002</v>
       </c>
+      <c r="T234">
+        <v>1.5149840000000001</v>
+      </c>
+      <c r="X234">
+        <f>G234/U$2</f>
+        <v>184.02500851652204</v>
+      </c>
+      <c r="Y234">
+        <f>J234/V$2</f>
+        <v>190.1496345809816</v>
+      </c>
+      <c r="Z234">
+        <f>M234/W$2</f>
+        <v>210.78713670613564</v>
+      </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>2625040</v>
       </c>
@@ -33444,7 +38505,7 @@
         <v>181248</v>
       </c>
       <c r="D235">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>2.827512</v>
       </c>
       <c r="E235">
@@ -33474,8 +38535,23 @@
       <c r="M235">
         <v>321.22000000000003</v>
       </c>
+      <c r="T235">
+        <v>2.827512</v>
+      </c>
+      <c r="X235">
+        <f>G235/U$2</f>
+        <v>169.1301124180911</v>
+      </c>
+      <c r="Y235">
+        <f>J235/V$2</f>
+        <v>165.83817553980779</v>
+      </c>
+      <c r="Z235">
+        <f>M235/W$2</f>
+        <v>216.10602798708291</v>
+      </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>160496</v>
       </c>
@@ -33486,7 +38562,7 @@
         <v>181248</v>
       </c>
       <c r="D236">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.36845099999999997</v>
       </c>
       <c r="E236">
@@ -33516,8 +38592,23 @@
       <c r="M236">
         <v>449.20299999999997</v>
       </c>
+      <c r="T236">
+        <v>0.36845099999999997</v>
+      </c>
+      <c r="X236">
+        <f>G236/U$2</f>
+        <v>240.90602435391324</v>
+      </c>
+      <c r="Y236">
+        <f>J236/V$2</f>
+        <v>222.84770278328642</v>
+      </c>
+      <c r="Z236">
+        <f>M236/W$2</f>
+        <v>302.20869214208824</v>
+      </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>320768</v>
       </c>
@@ -33528,7 +38619,7 @@
         <v>181248</v>
       </c>
       <c r="D237">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.52872300000000005</v>
       </c>
       <c r="E237">
@@ -33558,8 +38649,23 @@
       <c r="M237">
         <v>356.21499999999997</v>
       </c>
+      <c r="T237">
+        <v>0.52872300000000005</v>
+      </c>
+      <c r="X237">
+        <f>G237/U$2</f>
+        <v>232.18510577186407</v>
+      </c>
+      <c r="Y237">
+        <f>J237/V$2</f>
+        <v>217.19965607621796</v>
+      </c>
+      <c r="Z237">
+        <f>M237/W$2</f>
+        <v>239.64948869752422</v>
+      </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>684848</v>
       </c>
@@ -33570,7 +38676,7 @@
         <v>181248</v>
       </c>
       <c r="D238">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.89280300000000001</v>
       </c>
       <c r="E238">
@@ -33600,8 +38706,23 @@
       <c r="M238">
         <v>310.02699999999999</v>
       </c>
+      <c r="T238">
+        <v>0.89280300000000001</v>
+      </c>
+      <c r="X238">
+        <f>G238/U$2</f>
+        <v>212.10214482763229</v>
+      </c>
+      <c r="Y238">
+        <f>J238/V$2</f>
+        <v>205.14845580995438</v>
+      </c>
+      <c r="Z238">
+        <f>M238/W$2</f>
+        <v>208.57575349838535</v>
+      </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>1312512</v>
       </c>
@@ -33612,7 +38733,7 @@
         <v>181248</v>
       </c>
       <c r="D239">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1.520467</v>
       </c>
       <c r="E239">
@@ -33642,8 +38763,23 @@
       <c r="M239">
         <v>313.58499999999998</v>
       </c>
+      <c r="T239">
+        <v>1.520467</v>
+      </c>
+      <c r="X239">
+        <f>G239/U$2</f>
+        <v>184.08980088037458</v>
+      </c>
+      <c r="Y239">
+        <f>J239/V$2</f>
+        <v>190.2196674478914</v>
+      </c>
+      <c r="Z239">
+        <f>M239/W$2</f>
+        <v>210.96945640473626</v>
+      </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>2625040</v>
       </c>
@@ -33654,7 +38790,7 @@
         <v>181248</v>
       </c>
       <c r="D240">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>2.8329949999999999</v>
       </c>
       <c r="E240">
@@ -33684,8 +38820,23 @@
       <c r="M240">
         <v>321.49099999999999</v>
       </c>
+      <c r="T240">
+        <v>2.8329949999999999</v>
+      </c>
+      <c r="X240">
+        <f>G240/U$2</f>
+        <v>169.19423681942968</v>
+      </c>
+      <c r="Y240">
+        <f>J240/V$2</f>
+        <v>165.90786170935667</v>
+      </c>
+      <c r="Z240">
+        <f>M240/W$2</f>
+        <v>216.28834768568353</v>
+      </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>160496</v>
       </c>
@@ -33696,7 +38847,7 @@
         <v>181248</v>
       </c>
       <c r="D241">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.379052</v>
       </c>
       <c r="E241">
@@ -33726,8 +38877,23 @@
       <c r="M241">
         <v>449.46300000000002</v>
       </c>
+      <c r="T241">
+        <v>0.379052</v>
+      </c>
+      <c r="X241">
+        <f>G241/U$2</f>
+        <v>224.46011929810498</v>
+      </c>
+      <c r="Y241">
+        <f>J241/V$2</f>
+        <v>217.65452301377081</v>
+      </c>
+      <c r="Z241">
+        <f>M241/W$2</f>
+        <v>302.38361141011842</v>
+      </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>320768</v>
       </c>
@@ -33738,7 +38904,7 @@
         <v>181248</v>
       </c>
       <c r="D242">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.53932400000000003</v>
       </c>
       <c r="E242">
@@ -33768,8 +38934,23 @@
       <c r="M242">
         <v>356.47500000000002</v>
       </c>
+      <c r="T242">
+        <v>0.53932400000000003</v>
+      </c>
+      <c r="X242">
+        <f>G242/U$2</f>
+        <v>223.31456358669149</v>
+      </c>
+      <c r="Y242">
+        <f>J242/V$2</f>
+        <v>210.63494154682496</v>
+      </c>
+      <c r="Z242">
+        <f>M242/W$2</f>
+        <v>239.82440796555437</v>
+      </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>684848</v>
       </c>
@@ -33780,7 +38961,7 @@
         <v>181248</v>
       </c>
       <c r="D243">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.90340399999999998</v>
       </c>
       <c r="E243">
@@ -33810,8 +38991,23 @@
       <c r="M243">
         <v>310.28699999999998</v>
       </c>
+      <c r="T243">
+        <v>0.90340399999999998</v>
+      </c>
+      <c r="X243">
+        <f>G243/U$2</f>
+        <v>209.12102812790147</v>
+      </c>
+      <c r="Y243">
+        <f>J243/V$2</f>
+        <v>202.73648226989695</v>
+      </c>
+      <c r="Z243">
+        <f>M243/W$2</f>
+        <v>208.75067276641551</v>
+      </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>1312512</v>
       </c>
@@ -33822,7 +39018,7 @@
         <v>181248</v>
       </c>
       <c r="D244">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1.5310680000000001</v>
       </c>
       <c r="E244">
@@ -33852,8 +39048,23 @@
       <c r="M244">
         <v>313.84500000000003</v>
       </c>
+      <c r="T244">
+        <v>1.5310680000000001</v>
+      </c>
+      <c r="X244">
+        <f>G244/U$2</f>
+        <v>184.20869820785657</v>
+      </c>
+      <c r="Y244">
+        <f>J244/V$2</f>
+        <v>190.36320015532044</v>
+      </c>
+      <c r="Z244">
+        <f>M244/W$2</f>
+        <v>211.14437567276644</v>
+      </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>2625040</v>
       </c>
@@ -33864,7 +39075,7 @@
         <v>181248</v>
       </c>
       <c r="D245">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>2.8435959999999998</v>
       </c>
       <c r="E245">
@@ -33894,8 +39105,23 @@
       <c r="M245">
         <v>321.75099999999998</v>
       </c>
+      <c r="T245">
+        <v>2.8435959999999998</v>
+      </c>
+      <c r="X245">
+        <f>G245/U$2</f>
+        <v>169.31113025936983</v>
+      </c>
+      <c r="Y245">
+        <f>J245/V$2</f>
+        <v>166.05035432470288</v>
+      </c>
+      <c r="Z245">
+        <f>M245/W$2</f>
+        <v>216.46326695371366</v>
+      </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>160496</v>
       </c>
@@ -33906,7 +39132,7 @@
         <v>181248</v>
       </c>
       <c r="D246">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.40283400000000003</v>
       </c>
       <c r="E246">
@@ -33936,8 +39162,23 @@
       <c r="M246">
         <v>449.64600000000002</v>
       </c>
+      <c r="T246">
+        <v>0.40283400000000003</v>
+      </c>
+      <c r="X246">
+        <f>G246/U$2</f>
+        <v>223.18497885898645</v>
+      </c>
+      <c r="Y246">
+        <f>J246/V$2</f>
+        <v>214.15045278675339</v>
+      </c>
+      <c r="Z246">
+        <f>M246/W$2</f>
+        <v>302.50672766415505</v>
+      </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>320768</v>
       </c>
@@ -33948,7 +39189,7 @@
         <v>181248</v>
       </c>
       <c r="D247">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.563106</v>
       </c>
       <c r="E247">
@@ -33978,8 +39219,23 @@
       <c r="M247">
         <v>356.65899999999999</v>
       </c>
+      <c r="T247">
+        <v>0.563106</v>
+      </c>
+      <c r="X247">
+        <f>G247/U$2</f>
+        <v>215.88481654409551</v>
+      </c>
+      <c r="Y247">
+        <f>J247/V$2</f>
+        <v>210.30592575129319</v>
+      </c>
+      <c r="Z247">
+        <f>M247/W$2</f>
+        <v>239.94819698600645</v>
+      </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>684848</v>
       </c>
@@ -33990,7 +39246,7 @@
         <v>181248</v>
       </c>
       <c r="D248">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.92718599999999995</v>
       </c>
       <c r="E248">
@@ -34020,8 +39276,23 @@
       <c r="M248">
         <v>310.47000000000003</v>
       </c>
+      <c r="T248">
+        <v>0.92718599999999995</v>
+      </c>
+      <c r="X248">
+        <f>G248/U$2</f>
+        <v>201.98852440401043</v>
+      </c>
+      <c r="Y248">
+        <f>J248/V$2</f>
+        <v>202.80131467639271</v>
+      </c>
+      <c r="Z248">
+        <f>M248/W$2</f>
+        <v>208.87378902045214</v>
+      </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>1312512</v>
       </c>
@@ -34032,7 +39303,7 @@
         <v>181248</v>
       </c>
       <c r="D249">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1.5548500000000001</v>
       </c>
       <c r="E249">
@@ -34062,8 +39333,23 @@
       <c r="M249">
         <v>314.029</v>
       </c>
+      <c r="T249">
+        <v>1.5548500000000001</v>
+      </c>
+      <c r="X249">
+        <f>G249/U$2</f>
+        <v>183.6068639827933</v>
+      </c>
+      <c r="Y249">
+        <f>J249/V$2</f>
+        <v>189.82477915378107</v>
+      </c>
+      <c r="Z249">
+        <f>M249/W$2</f>
+        <v>211.26816469321852</v>
+      </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>2625040</v>
       </c>
@@ -34074,7 +39360,7 @@
         <v>181248</v>
       </c>
       <c r="D250">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>2.867378</v>
       </c>
       <c r="E250">
@@ -34104,8 +39390,23 @@
       <c r="M250">
         <v>321.935</v>
       </c>
+      <c r="T250">
+        <v>2.867378</v>
+      </c>
+      <c r="X250">
+        <f>G250/U$2</f>
+        <v>169.38327021087576</v>
+      </c>
+      <c r="Y250">
+        <f>J250/V$2</f>
+        <v>166.11553342855956</v>
+      </c>
+      <c r="Z250">
+        <f>M250/W$2</f>
+        <v>216.58705597416579</v>
+      </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>160496</v>
       </c>
@@ -34116,7 +39417,7 @@
         <v>181248</v>
       </c>
       <c r="D251">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.44875100000000001</v>
       </c>
       <c r="E251">
@@ -34146,8 +39447,23 @@
       <c r="M251">
         <v>450.41199999999998</v>
       </c>
+      <c r="T251">
+        <v>0.44875100000000001</v>
+      </c>
+      <c r="X251">
+        <f>G251/U$2</f>
+        <v>223.49224161540056</v>
+      </c>
+      <c r="Y251">
+        <f>J251/V$2</f>
+        <v>214.49715014769308</v>
+      </c>
+      <c r="Z251">
+        <f>M251/W$2</f>
+        <v>303.02206673842841</v>
+      </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>320768</v>
       </c>
@@ -34158,7 +39474,7 @@
         <v>181248</v>
       </c>
       <c r="D252">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.60902299999999998</v>
       </c>
       <c r="E252">
@@ -34188,8 +39504,23 @@
       <c r="M252">
         <v>357.42500000000001</v>
       </c>
+      <c r="T252">
+        <v>0.60902299999999998</v>
+      </c>
+      <c r="X252">
+        <f>G252/U$2</f>
+        <v>216.19207930050965</v>
+      </c>
+      <c r="Y252">
+        <f>J252/V$2</f>
+        <v>210.65262311223287</v>
+      </c>
+      <c r="Z252">
+        <f>M252/W$2</f>
+        <v>240.46353606027989</v>
+      </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>684848</v>
       </c>
@@ -34200,7 +39531,7 @@
         <v>181248</v>
       </c>
       <c r="D253">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.97310300000000005</v>
       </c>
       <c r="E253">
@@ -34230,8 +39561,23 @@
       <c r="M253">
         <v>311.23599999999999</v>
       </c>
+      <c r="T253">
+        <v>0.97310300000000005</v>
+      </c>
+      <c r="X253">
+        <f>G253/U$2</f>
+        <v>202.29578716042457</v>
+      </c>
+      <c r="Y253">
+        <f>J253/V$2</f>
+        <v>203.14489176108393</v>
+      </c>
+      <c r="Z253">
+        <f>M253/W$2</f>
+        <v>209.38912809472552</v>
+      </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>1312512</v>
       </c>
@@ -34242,7 +39588,7 @@
         <v>181248</v>
       </c>
       <c r="D254">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1.6007670000000001</v>
       </c>
       <c r="E254">
@@ -34272,8 +39618,23 @@
       <c r="M254">
         <v>314.79399999999998</v>
       </c>
+      <c r="T254">
+        <v>1.6007670000000001</v>
+      </c>
+      <c r="X254">
+        <f>G254/U$2</f>
+        <v>183.9141267392074</v>
+      </c>
+      <c r="Y254">
+        <f>J254/V$2</f>
+        <v>190.17771706721769</v>
+      </c>
+      <c r="Z254">
+        <f>M254/W$2</f>
+        <v>211.78283100107643</v>
+      </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>2625040</v>
       </c>
@@ -34284,7 +39645,7 @@
         <v>181248</v>
       </c>
       <c r="D255">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>2.9132950000000002</v>
       </c>
       <c r="E255">
@@ -34313,6 +39674,21 @@
       </c>
       <c r="M255">
         <v>322.7</v>
+      </c>
+      <c r="T255">
+        <v>2.9132950000000002</v>
+      </c>
+      <c r="X255">
+        <f>G255/U$2</f>
+        <v>169.68986500477592</v>
+      </c>
+      <c r="Y255">
+        <f>J255/V$2</f>
+        <v>166.45633693436326</v>
+      </c>
+      <c r="Z255">
+        <f>M255/W$2</f>
+        <v>217.10172228202367</v>
       </c>
     </row>
   </sheetData>
